--- a/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14079000</v>
+        <v>14021500</v>
       </c>
       <c r="E8" s="3">
-        <v>14264900</v>
+        <v>14206700</v>
       </c>
       <c r="F8" s="3">
-        <v>15688900</v>
+        <v>15624900</v>
       </c>
       <c r="G8" s="3">
-        <v>16713900</v>
+        <v>16645700</v>
       </c>
       <c r="H8" s="3">
-        <v>17103600</v>
+        <v>17033800</v>
       </c>
       <c r="I8" s="3">
-        <v>17212800</v>
+        <v>17142600</v>
       </c>
       <c r="J8" s="3">
-        <v>17145300</v>
+        <v>17075300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5444500</v>
+        <v>5422300</v>
       </c>
       <c r="E9" s="3">
-        <v>5504000</v>
+        <v>5481600</v>
       </c>
       <c r="F9" s="3">
-        <v>6026100</v>
+        <v>6001500</v>
       </c>
       <c r="G9" s="3">
-        <v>6046600</v>
+        <v>6021900</v>
       </c>
       <c r="H9" s="3">
-        <v>5517300</v>
+        <v>5494700</v>
       </c>
       <c r="I9" s="3">
-        <v>5075900</v>
+        <v>5055200</v>
       </c>
       <c r="J9" s="3">
-        <v>4795300</v>
+        <v>4775800</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8634500</v>
+        <v>8599300</v>
       </c>
       <c r="E10" s="3">
-        <v>8760900</v>
+        <v>8725200</v>
       </c>
       <c r="F10" s="3">
-        <v>9662800</v>
+        <v>9623400</v>
       </c>
       <c r="G10" s="3">
-        <v>10667300</v>
+        <v>10623700</v>
       </c>
       <c r="H10" s="3">
-        <v>11586400</v>
+        <v>11539100</v>
       </c>
       <c r="I10" s="3">
-        <v>12136900</v>
+        <v>12087400</v>
       </c>
       <c r="J10" s="3">
-        <v>12350000</v>
+        <v>12299600</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>222300</v>
+        <v>221400</v>
       </c>
       <c r="E14" s="3">
-        <v>451300</v>
+        <v>449400</v>
       </c>
       <c r="F14" s="3">
-        <v>687500</v>
+        <v>684700</v>
       </c>
       <c r="G14" s="3">
-        <v>1004500</v>
+        <v>1000400</v>
       </c>
       <c r="H14" s="3">
-        <v>549200</v>
+        <v>547000</v>
       </c>
       <c r="I14" s="3">
-        <v>361300</v>
+        <v>359800</v>
       </c>
       <c r="J14" s="3">
-        <v>294500</v>
+        <v>293300</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2883700</v>
+        <v>2871900</v>
       </c>
       <c r="E15" s="3">
-        <v>3074300</v>
+        <v>3061700</v>
       </c>
       <c r="F15" s="3">
-        <v>3532200</v>
+        <v>3517700</v>
       </c>
       <c r="G15" s="3">
-        <v>2833400</v>
+        <v>2821800</v>
       </c>
       <c r="H15" s="3">
-        <v>2957800</v>
+        <v>2945700</v>
       </c>
       <c r="I15" s="3">
-        <v>2938600</v>
+        <v>2926600</v>
       </c>
       <c r="J15" s="3">
-        <v>2749400</v>
+        <v>2738100</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12664900</v>
+        <v>12613300</v>
       </c>
       <c r="E17" s="3">
-        <v>13255800</v>
+        <v>13201700</v>
       </c>
       <c r="F17" s="3">
-        <v>14941800</v>
+        <v>14880900</v>
       </c>
       <c r="G17" s="3">
-        <v>15949600</v>
+        <v>15884500</v>
       </c>
       <c r="H17" s="3">
-        <v>15080800</v>
+        <v>15019300</v>
       </c>
       <c r="I17" s="3">
-        <v>14536900</v>
+        <v>14477600</v>
       </c>
       <c r="J17" s="3">
-        <v>13721700</v>
+        <v>13665700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1414100</v>
+        <v>1408300</v>
       </c>
       <c r="E18" s="3">
-        <v>1009100</v>
+        <v>1005000</v>
       </c>
       <c r="F18" s="3">
-        <v>747100</v>
+        <v>744000</v>
       </c>
       <c r="G18" s="3">
-        <v>764300</v>
+        <v>761100</v>
       </c>
       <c r="H18" s="3">
-        <v>2022800</v>
+        <v>2014600</v>
       </c>
       <c r="I18" s="3">
-        <v>2675900</v>
+        <v>2665000</v>
       </c>
       <c r="J18" s="3">
-        <v>3423600</v>
+        <v>3409700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>536000</v>
+        <v>533800</v>
       </c>
       <c r="E20" s="3">
-        <v>967400</v>
+        <v>963500</v>
       </c>
       <c r="F20" s="3">
-        <v>1586100</v>
+        <v>1579600</v>
       </c>
       <c r="G20" s="3">
-        <v>1723100</v>
+        <v>1716000</v>
       </c>
       <c r="H20" s="3">
-        <v>1825000</v>
+        <v>1817500</v>
       </c>
       <c r="I20" s="3">
-        <v>1549700</v>
+        <v>1543400</v>
       </c>
       <c r="J20" s="3">
-        <v>818500</v>
+        <v>815200</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4752200</v>
+        <v>4812300</v>
       </c>
       <c r="E21" s="3">
-        <v>4963900</v>
+        <v>5028300</v>
       </c>
       <c r="F21" s="3">
-        <v>5765500</v>
+        <v>5839200</v>
       </c>
       <c r="G21" s="3">
-        <v>5240700</v>
+        <v>5297300</v>
       </c>
       <c r="H21" s="3">
-        <v>6722000</v>
+        <v>6776000</v>
       </c>
       <c r="I21" s="3">
-        <v>7081200</v>
+        <v>7133200</v>
       </c>
       <c r="J21" s="3">
-        <v>6920300</v>
+        <v>6967900</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>308400</v>
+        <v>307100</v>
       </c>
       <c r="E22" s="3">
-        <v>361300</v>
+        <v>359800</v>
       </c>
       <c r="F22" s="3">
-        <v>483000</v>
+        <v>481100</v>
       </c>
       <c r="G22" s="3">
-        <v>454600</v>
+        <v>452700</v>
       </c>
       <c r="H22" s="3">
-        <v>447300</v>
+        <v>445500</v>
       </c>
       <c r="I22" s="3">
-        <v>489000</v>
+        <v>487000</v>
       </c>
       <c r="J22" s="3">
-        <v>536600</v>
+        <v>534400</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1641700</v>
+        <v>1635000</v>
       </c>
       <c r="E23" s="3">
-        <v>1615200</v>
+        <v>1608600</v>
       </c>
       <c r="F23" s="3">
-        <v>1850100</v>
+        <v>1842600</v>
       </c>
       <c r="G23" s="3">
-        <v>2032700</v>
+        <v>2024400</v>
       </c>
       <c r="H23" s="3">
-        <v>3400500</v>
+        <v>3386600</v>
       </c>
       <c r="I23" s="3">
-        <v>3736600</v>
+        <v>3721400</v>
       </c>
       <c r="J23" s="3">
-        <v>3705500</v>
+        <v>3690400</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>441400</v>
+        <v>439600</v>
       </c>
       <c r="E24" s="3">
-        <v>356700</v>
+        <v>355200</v>
       </c>
       <c r="F24" s="3">
-        <v>633200</v>
+        <v>630700</v>
       </c>
       <c r="G24" s="3">
-        <v>610700</v>
+        <v>608300</v>
       </c>
       <c r="H24" s="3">
-        <v>1046800</v>
+        <v>1042500</v>
       </c>
       <c r="I24" s="3">
-        <v>1173200</v>
+        <v>1168400</v>
       </c>
       <c r="J24" s="3">
-        <v>1169900</v>
+        <v>1165100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200300</v>
+        <v>1195400</v>
       </c>
       <c r="E26" s="3">
-        <v>1258600</v>
+        <v>1253400</v>
       </c>
       <c r="F26" s="3">
-        <v>1216900</v>
+        <v>1211900</v>
       </c>
       <c r="G26" s="3">
-        <v>1422000</v>
+        <v>1416200</v>
       </c>
       <c r="H26" s="3">
-        <v>2353700</v>
+        <v>2344100</v>
       </c>
       <c r="I26" s="3">
-        <v>2563400</v>
+        <v>2553000</v>
       </c>
       <c r="J26" s="3">
-        <v>2535600</v>
+        <v>2525300</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1116900</v>
+        <v>1112400</v>
       </c>
       <c r="E27" s="3">
-        <v>1228800</v>
+        <v>1223800</v>
       </c>
       <c r="F27" s="3">
-        <v>1203600</v>
+        <v>1198700</v>
       </c>
       <c r="G27" s="3">
-        <v>1425300</v>
+        <v>1419500</v>
       </c>
       <c r="H27" s="3">
-        <v>2376200</v>
+        <v>2366500</v>
       </c>
       <c r="I27" s="3">
-        <v>2574700</v>
+        <v>2564200</v>
       </c>
       <c r="J27" s="3">
-        <v>2490000</v>
+        <v>2479800</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>1334600</v>
+        <v>1329200</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-536000</v>
+        <v>-533800</v>
       </c>
       <c r="E32" s="3">
-        <v>-967400</v>
+        <v>-963500</v>
       </c>
       <c r="F32" s="3">
-        <v>-1586100</v>
+        <v>-1579600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1723100</v>
+        <v>-1716000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1825000</v>
+        <v>-1817500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1549700</v>
+        <v>-1543400</v>
       </c>
       <c r="J32" s="3">
-        <v>-818500</v>
+        <v>-815200</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1116900</v>
+        <v>1112400</v>
       </c>
       <c r="E33" s="3">
-        <v>1228800</v>
+        <v>1223800</v>
       </c>
       <c r="F33" s="3">
-        <v>1203600</v>
+        <v>1198700</v>
       </c>
       <c r="G33" s="3">
-        <v>1425300</v>
+        <v>1419500</v>
       </c>
       <c r="H33" s="3">
-        <v>2376200</v>
+        <v>2366500</v>
       </c>
       <c r="I33" s="3">
-        <v>2574700</v>
+        <v>2564200</v>
       </c>
       <c r="J33" s="3">
-        <v>3824600</v>
+        <v>3809000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1116900</v>
+        <v>1112400</v>
       </c>
       <c r="E35" s="3">
-        <v>1228800</v>
+        <v>1223800</v>
       </c>
       <c r="F35" s="3">
-        <v>1203600</v>
+        <v>1198700</v>
       </c>
       <c r="G35" s="3">
-        <v>1425300</v>
+        <v>1419500</v>
       </c>
       <c r="H35" s="3">
-        <v>2376200</v>
+        <v>2366500</v>
       </c>
       <c r="I35" s="3">
-        <v>2574700</v>
+        <v>2564200</v>
       </c>
       <c r="J35" s="3">
-        <v>3824600</v>
+        <v>3809000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688200</v>
+        <v>685400</v>
       </c>
       <c r="E41" s="3">
-        <v>744400</v>
+        <v>741400</v>
       </c>
       <c r="F41" s="3">
-        <v>330200</v>
+        <v>328800</v>
       </c>
       <c r="G41" s="3">
-        <v>399700</v>
+        <v>398000</v>
       </c>
       <c r="H41" s="3">
-        <v>416200</v>
+        <v>414500</v>
       </c>
       <c r="I41" s="3">
-        <v>1241300</v>
+        <v>1236300</v>
       </c>
       <c r="J41" s="3">
-        <v>2349000</v>
+        <v>2339500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2707000</v>
+        <v>2696000</v>
       </c>
       <c r="E43" s="3">
-        <v>3031900</v>
+        <v>3019500</v>
       </c>
       <c r="F43" s="3">
-        <v>3389900</v>
+        <v>3376100</v>
       </c>
       <c r="G43" s="3">
-        <v>3572500</v>
+        <v>3557900</v>
       </c>
       <c r="H43" s="3">
-        <v>5715100</v>
+        <v>5691800</v>
       </c>
       <c r="I43" s="3">
-        <v>7655200</v>
+        <v>7624000</v>
       </c>
       <c r="J43" s="3">
-        <v>3139800</v>
+        <v>3127000</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>315000</v>
+        <v>313700</v>
       </c>
       <c r="E44" s="3">
-        <v>254800</v>
+        <v>253700</v>
       </c>
       <c r="F44" s="3">
-        <v>276600</v>
+        <v>275500</v>
       </c>
       <c r="G44" s="3">
-        <v>296400</v>
+        <v>295200</v>
       </c>
       <c r="H44" s="3">
-        <v>325600</v>
+        <v>324200</v>
       </c>
       <c r="I44" s="3">
-        <v>901200</v>
+        <v>897600</v>
       </c>
       <c r="J44" s="3">
-        <v>368600</v>
+        <v>367100</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>432100</v>
+        <v>430300</v>
       </c>
       <c r="E45" s="3">
-        <v>676300</v>
+        <v>673500</v>
       </c>
       <c r="F45" s="3">
-        <v>326900</v>
+        <v>325500</v>
       </c>
       <c r="G45" s="3">
-        <v>563800</v>
+        <v>561500</v>
       </c>
       <c r="H45" s="3">
-        <v>380500</v>
+        <v>378900</v>
       </c>
       <c r="I45" s="3">
-        <v>356700</v>
+        <v>355200</v>
       </c>
       <c r="J45" s="3">
-        <v>322900</v>
+        <v>321600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4142200</v>
+        <v>4125300</v>
       </c>
       <c r="E46" s="3">
-        <v>4707300</v>
+        <v>4688100</v>
       </c>
       <c r="F46" s="3">
-        <v>4323500</v>
+        <v>4305900</v>
       </c>
       <c r="G46" s="3">
-        <v>4832400</v>
+        <v>4812700</v>
       </c>
       <c r="H46" s="3">
-        <v>4823800</v>
+        <v>4804100</v>
       </c>
       <c r="I46" s="3">
-        <v>5324700</v>
+        <v>5303000</v>
       </c>
       <c r="J46" s="3">
-        <v>6180300</v>
+        <v>6155100</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1118300</v>
+        <v>1113700</v>
       </c>
       <c r="E47" s="3">
-        <v>1456400</v>
+        <v>1450500</v>
       </c>
       <c r="F47" s="3">
-        <v>1552300</v>
+        <v>1546000</v>
       </c>
       <c r="G47" s="3">
-        <v>1391600</v>
+        <v>1385900</v>
       </c>
       <c r="H47" s="3">
-        <v>1325400</v>
+        <v>1320000</v>
       </c>
       <c r="I47" s="3">
-        <v>1651600</v>
+        <v>1644900</v>
       </c>
       <c r="J47" s="3">
-        <v>1229400</v>
+        <v>1224400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15491100</v>
+        <v>15427800</v>
       </c>
       <c r="E48" s="3">
-        <v>15692200</v>
+        <v>15628200</v>
       </c>
       <c r="F48" s="3">
-        <v>16230800</v>
+        <v>16164600</v>
       </c>
       <c r="G48" s="3">
-        <v>14777100</v>
+        <v>14716800</v>
       </c>
       <c r="H48" s="3">
-        <v>14628900</v>
+        <v>14569200</v>
       </c>
       <c r="I48" s="3">
-        <v>28254600</v>
+        <v>28139300</v>
       </c>
       <c r="J48" s="3">
-        <v>13618400</v>
+        <v>13562900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5396200</v>
+        <v>5374100</v>
       </c>
       <c r="E49" s="3">
-        <v>4718600</v>
+        <v>4699300</v>
       </c>
       <c r="F49" s="3">
-        <v>4904500</v>
+        <v>4884500</v>
       </c>
       <c r="G49" s="3">
-        <v>4770900</v>
+        <v>4751400</v>
       </c>
       <c r="H49" s="3">
-        <v>6074400</v>
+        <v>6049600</v>
       </c>
       <c r="I49" s="3">
-        <v>11827900</v>
+        <v>11779600</v>
       </c>
       <c r="J49" s="3">
-        <v>6106800</v>
+        <v>6081900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1397500</v>
+        <v>1391800</v>
       </c>
       <c r="E52" s="3">
-        <v>1564300</v>
+        <v>1557900</v>
       </c>
       <c r="F52" s="3">
-        <v>2370200</v>
+        <v>2360500</v>
       </c>
       <c r="G52" s="3">
-        <v>2409200</v>
+        <v>2399400</v>
       </c>
       <c r="H52" s="3">
-        <v>2249800</v>
+        <v>2240600</v>
       </c>
       <c r="I52" s="3">
-        <v>1875900</v>
+        <v>1868300</v>
       </c>
       <c r="J52" s="3">
-        <v>1507400</v>
+        <v>1501200</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27545200</v>
+        <v>27432900</v>
       </c>
       <c r="E54" s="3">
-        <v>28138800</v>
+        <v>28024000</v>
       </c>
       <c r="F54" s="3">
-        <v>29381500</v>
+        <v>29261600</v>
       </c>
       <c r="G54" s="3">
-        <v>28181100</v>
+        <v>28066200</v>
       </c>
       <c r="H54" s="3">
-        <v>28269800</v>
+        <v>28154500</v>
       </c>
       <c r="I54" s="3">
-        <v>27795400</v>
+        <v>27682000</v>
       </c>
       <c r="J54" s="3">
-        <v>28642300</v>
+        <v>28525500</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>858200</v>
+        <v>854700</v>
       </c>
       <c r="E57" s="3">
-        <v>796700</v>
+        <v>793400</v>
       </c>
       <c r="F57" s="3">
-        <v>653800</v>
+        <v>651100</v>
       </c>
       <c r="G57" s="3">
-        <v>561800</v>
+        <v>559500</v>
       </c>
       <c r="H57" s="3">
-        <v>1050800</v>
+        <v>1046500</v>
       </c>
       <c r="I57" s="3">
-        <v>3393900</v>
+        <v>3380000</v>
       </c>
       <c r="J57" s="3">
-        <v>969400</v>
+        <v>965400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2104200</v>
+        <v>2095600</v>
       </c>
       <c r="E58" s="3">
-        <v>2735500</v>
+        <v>2724300</v>
       </c>
       <c r="F58" s="3">
-        <v>2232600</v>
+        <v>2223500</v>
       </c>
       <c r="G58" s="3">
-        <v>1470300</v>
+        <v>1464300</v>
       </c>
       <c r="H58" s="3">
-        <v>1081900</v>
+        <v>1077500</v>
       </c>
       <c r="I58" s="3">
-        <v>3276700</v>
+        <v>3263400</v>
       </c>
       <c r="J58" s="3">
-        <v>1756800</v>
+        <v>1749600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3561900</v>
+        <v>3547400</v>
       </c>
       <c r="E59" s="3">
-        <v>3365400</v>
+        <v>3351700</v>
       </c>
       <c r="F59" s="3">
-        <v>3792900</v>
+        <v>3777400</v>
       </c>
       <c r="G59" s="3">
-        <v>4289100</v>
+        <v>4271600</v>
       </c>
       <c r="H59" s="3">
-        <v>4492300</v>
+        <v>4474000</v>
       </c>
       <c r="I59" s="3">
-        <v>4566400</v>
+        <v>4547800</v>
       </c>
       <c r="J59" s="3">
-        <v>3353500</v>
+        <v>3339800</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6524400</v>
+        <v>6497700</v>
       </c>
       <c r="E60" s="3">
-        <v>6897600</v>
+        <v>6869400</v>
       </c>
       <c r="F60" s="3">
-        <v>6679200</v>
+        <v>6651900</v>
       </c>
       <c r="G60" s="3">
-        <v>6321200</v>
+        <v>6295400</v>
       </c>
       <c r="H60" s="3">
-        <v>5813000</v>
+        <v>5789300</v>
       </c>
       <c r="I60" s="3">
-        <v>6008900</v>
+        <v>5984400</v>
       </c>
       <c r="J60" s="3">
-        <v>6079700</v>
+        <v>6054900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7337600</v>
+        <v>7307700</v>
       </c>
       <c r="E61" s="3">
-        <v>8805200</v>
+        <v>8769300</v>
       </c>
       <c r="F61" s="3">
-        <v>10423800</v>
+        <v>10381200</v>
       </c>
       <c r="G61" s="3">
-        <v>9946000</v>
+        <v>9905400</v>
       </c>
       <c r="H61" s="3">
-        <v>10134600</v>
+        <v>10093200</v>
       </c>
       <c r="I61" s="3">
-        <v>9798500</v>
+        <v>9758500</v>
       </c>
       <c r="J61" s="3">
-        <v>9691900</v>
+        <v>9652400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2542300</v>
+        <v>2531900</v>
       </c>
       <c r="E62" s="3">
-        <v>2328500</v>
+        <v>2319000</v>
       </c>
       <c r="F62" s="3">
-        <v>2255700</v>
+        <v>2246500</v>
       </c>
       <c r="G62" s="3">
-        <v>2299400</v>
+        <v>2290000</v>
       </c>
       <c r="H62" s="3">
-        <v>3516900</v>
+        <v>3502600</v>
       </c>
       <c r="I62" s="3">
-        <v>3392500</v>
+        <v>3378700</v>
       </c>
       <c r="J62" s="3">
-        <v>2345100</v>
+        <v>2335500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17388800</v>
+        <v>17317900</v>
       </c>
       <c r="E66" s="3">
-        <v>18485900</v>
+        <v>18410500</v>
       </c>
       <c r="F66" s="3">
-        <v>19804700</v>
+        <v>19723900</v>
       </c>
       <c r="G66" s="3">
-        <v>18554100</v>
+        <v>18478400</v>
       </c>
       <c r="H66" s="3">
-        <v>18587800</v>
+        <v>18512000</v>
       </c>
       <c r="I66" s="3">
-        <v>18444200</v>
+        <v>18369000</v>
       </c>
       <c r="J66" s="3">
-        <v>18140500</v>
+        <v>18066500</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7937100</v>
+        <v>7904700</v>
       </c>
       <c r="E72" s="3">
-        <v>6621600</v>
+        <v>6594600</v>
       </c>
       <c r="F72" s="3">
-        <v>6623600</v>
+        <v>6596600</v>
       </c>
       <c r="G72" s="3">
-        <v>6718200</v>
+        <v>6690800</v>
       </c>
       <c r="H72" s="3">
-        <v>6834000</v>
+        <v>6806200</v>
       </c>
       <c r="I72" s="3">
-        <v>6423100</v>
+        <v>6396900</v>
       </c>
       <c r="J72" s="3">
-        <v>7040500</v>
+        <v>7011800</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10156400</v>
+        <v>10115000</v>
       </c>
       <c r="E76" s="3">
-        <v>9652900</v>
+        <v>9613500</v>
       </c>
       <c r="F76" s="3">
-        <v>9576800</v>
+        <v>9537700</v>
       </c>
       <c r="G76" s="3">
-        <v>9627100</v>
+        <v>9587800</v>
       </c>
       <c r="H76" s="3">
-        <v>9682000</v>
+        <v>9642500</v>
       </c>
       <c r="I76" s="3">
-        <v>9351100</v>
+        <v>9313000</v>
       </c>
       <c r="J76" s="3">
-        <v>10501800</v>
+        <v>10459000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1116900</v>
+        <v>1112400</v>
       </c>
       <c r="E81" s="3">
-        <v>1228800</v>
+        <v>1223800</v>
       </c>
       <c r="F81" s="3">
-        <v>1203600</v>
+        <v>1198700</v>
       </c>
       <c r="G81" s="3">
-        <v>1425300</v>
+        <v>1419500</v>
       </c>
       <c r="H81" s="3">
-        <v>2376200</v>
+        <v>2366500</v>
       </c>
       <c r="I81" s="3">
-        <v>2574700</v>
+        <v>2564200</v>
       </c>
       <c r="J81" s="3">
-        <v>3824600</v>
+        <v>3809000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2883700</v>
+        <v>2871900</v>
       </c>
       <c r="E83" s="3">
-        <v>3074300</v>
+        <v>3061700</v>
       </c>
       <c r="F83" s="3">
-        <v>3532200</v>
+        <v>3517700</v>
       </c>
       <c r="G83" s="3">
-        <v>2833400</v>
+        <v>2821800</v>
       </c>
       <c r="H83" s="3">
-        <v>2957800</v>
+        <v>2945700</v>
       </c>
       <c r="I83" s="3">
-        <v>2938600</v>
+        <v>2926600</v>
       </c>
       <c r="J83" s="3">
-        <v>2756000</v>
+        <v>2744700</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4796700</v>
+        <v>4777100</v>
       </c>
       <c r="E89" s="3">
-        <v>4784800</v>
+        <v>4765200</v>
       </c>
       <c r="F89" s="3">
-        <v>4638500</v>
+        <v>4619600</v>
       </c>
       <c r="G89" s="3">
-        <v>4422100</v>
+        <v>4404100</v>
       </c>
       <c r="H89" s="3">
-        <v>5694600</v>
+        <v>5671400</v>
       </c>
       <c r="I89" s="3">
-        <v>5144700</v>
+        <v>5123700</v>
       </c>
       <c r="J89" s="3">
-        <v>5381600</v>
+        <v>5359600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1439900</v>
+        <v>-1434000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1375700</v>
+        <v>-1370100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1549000</v>
+        <v>-1542700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2140600</v>
+        <v>-2131900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2362900</v>
+        <v>-2353300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2464800</v>
+        <v>-2454800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2018800</v>
+        <v>-2010600</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2246500</v>
+        <v>-2237300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1551000</v>
+        <v>-1544700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1969200</v>
+        <v>-1961200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2392000</v>
+        <v>-2382300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2587900</v>
+        <v>-2577300</v>
       </c>
       <c r="I94" s="3">
-        <v>-2831400</v>
+        <v>-2819900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1460400</v>
+        <v>-1454400</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1249300</v>
+        <v>-1244200</v>
       </c>
       <c r="E96" s="3">
-        <v>-1258600</v>
+        <v>-1253400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1259200</v>
+        <v>-1254100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1494800</v>
+        <v>-1488700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2084400</v>
+        <v>-2075900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2472100</v>
+        <v>-2462000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2505900</v>
+        <v>-2495600</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2627600</v>
+        <v>-2616900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2803000</v>
+        <v>-2791500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2738100</v>
+        <v>-2726900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2043300</v>
+        <v>-2035000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3318400</v>
+        <v>-3304900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4039000</v>
+        <v>-4022500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2499200</v>
+        <v>-2489000</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,7 +2967,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="E101" s="3">
         <v>-16500</v>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56200</v>
+        <v>-56000</v>
       </c>
       <c r="E102" s="3">
-        <v>414200</v>
+        <v>412500</v>
       </c>
       <c r="F102" s="3">
-        <v>-69500</v>
+        <v>-69200</v>
       </c>
       <c r="G102" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="H102" s="3">
-        <v>-209100</v>
+        <v>-208200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1729700</v>
+        <v>-1722600</v>
       </c>
       <c r="J102" s="3">
-        <v>1425300</v>
+        <v>1419500</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14021500</v>
+        <v>14079000</v>
       </c>
       <c r="E8" s="3">
-        <v>14206700</v>
+        <v>14264900</v>
       </c>
       <c r="F8" s="3">
-        <v>15624900</v>
+        <v>15688900</v>
       </c>
       <c r="G8" s="3">
-        <v>16645700</v>
+        <v>16713900</v>
       </c>
       <c r="H8" s="3">
-        <v>17033800</v>
+        <v>17103600</v>
       </c>
       <c r="I8" s="3">
-        <v>17142600</v>
+        <v>17212800</v>
       </c>
       <c r="J8" s="3">
-        <v>17075300</v>
+        <v>17145300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5422300</v>
+        <v>5444500</v>
       </c>
       <c r="E9" s="3">
-        <v>5481600</v>
+        <v>5504000</v>
       </c>
       <c r="F9" s="3">
-        <v>6001500</v>
+        <v>6026100</v>
       </c>
       <c r="G9" s="3">
-        <v>6021900</v>
+        <v>6046600</v>
       </c>
       <c r="H9" s="3">
-        <v>5494700</v>
+        <v>5517300</v>
       </c>
       <c r="I9" s="3">
-        <v>5055200</v>
+        <v>5075900</v>
       </c>
       <c r="J9" s="3">
-        <v>4775800</v>
+        <v>4795300</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8599300</v>
+        <v>8634500</v>
       </c>
       <c r="E10" s="3">
-        <v>8725200</v>
+        <v>8760900</v>
       </c>
       <c r="F10" s="3">
-        <v>9623400</v>
+        <v>9662800</v>
       </c>
       <c r="G10" s="3">
-        <v>10623700</v>
+        <v>10667300</v>
       </c>
       <c r="H10" s="3">
-        <v>11539100</v>
+        <v>11586400</v>
       </c>
       <c r="I10" s="3">
-        <v>12087400</v>
+        <v>12136900</v>
       </c>
       <c r="J10" s="3">
-        <v>12299600</v>
+        <v>12350000</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>221400</v>
+        <v>222300</v>
       </c>
       <c r="E14" s="3">
-        <v>449400</v>
+        <v>451300</v>
       </c>
       <c r="F14" s="3">
-        <v>684700</v>
+        <v>687500</v>
       </c>
       <c r="G14" s="3">
-        <v>1000400</v>
+        <v>1004500</v>
       </c>
       <c r="H14" s="3">
-        <v>547000</v>
+        <v>549200</v>
       </c>
       <c r="I14" s="3">
-        <v>359800</v>
+        <v>361300</v>
       </c>
       <c r="J14" s="3">
-        <v>293300</v>
+        <v>294500</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -886,25 +886,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2871900</v>
+        <v>2883700</v>
       </c>
       <c r="E15" s="3">
-        <v>3061700</v>
+        <v>3074300</v>
       </c>
       <c r="F15" s="3">
-        <v>3517700</v>
+        <v>3532200</v>
       </c>
       <c r="G15" s="3">
-        <v>2821800</v>
+        <v>2833400</v>
       </c>
       <c r="H15" s="3">
-        <v>2945700</v>
+        <v>2957800</v>
       </c>
       <c r="I15" s="3">
-        <v>2926600</v>
+        <v>2938600</v>
       </c>
       <c r="J15" s="3">
-        <v>2738100</v>
+        <v>2749400</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12613300</v>
+        <v>12664900</v>
       </c>
       <c r="E17" s="3">
-        <v>13201700</v>
+        <v>13255800</v>
       </c>
       <c r="F17" s="3">
-        <v>14880900</v>
+        <v>14941800</v>
       </c>
       <c r="G17" s="3">
-        <v>15884500</v>
+        <v>15949600</v>
       </c>
       <c r="H17" s="3">
-        <v>15019300</v>
+        <v>15080800</v>
       </c>
       <c r="I17" s="3">
-        <v>14477600</v>
+        <v>14536900</v>
       </c>
       <c r="J17" s="3">
-        <v>13665700</v>
+        <v>13721700</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1408300</v>
+        <v>1414100</v>
       </c>
       <c r="E18" s="3">
-        <v>1005000</v>
+        <v>1009100</v>
       </c>
       <c r="F18" s="3">
-        <v>744000</v>
+        <v>747100</v>
       </c>
       <c r="G18" s="3">
-        <v>761100</v>
+        <v>764300</v>
       </c>
       <c r="H18" s="3">
-        <v>2014600</v>
+        <v>2022800</v>
       </c>
       <c r="I18" s="3">
-        <v>2665000</v>
+        <v>2675900</v>
       </c>
       <c r="J18" s="3">
-        <v>3409700</v>
+        <v>3423600</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -990,25 +990,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>533800</v>
+        <v>536000</v>
       </c>
       <c r="E20" s="3">
-        <v>963500</v>
+        <v>967400</v>
       </c>
       <c r="F20" s="3">
-        <v>1579600</v>
+        <v>1586100</v>
       </c>
       <c r="G20" s="3">
-        <v>1716000</v>
+        <v>1723100</v>
       </c>
       <c r="H20" s="3">
-        <v>1817500</v>
+        <v>1825000</v>
       </c>
       <c r="I20" s="3">
-        <v>1543400</v>
+        <v>1549700</v>
       </c>
       <c r="J20" s="3">
-        <v>815200</v>
+        <v>818500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4812300</v>
+        <v>4852000</v>
       </c>
       <c r="E21" s="3">
-        <v>5028300</v>
+        <v>5070300</v>
       </c>
       <c r="F21" s="3">
-        <v>5839200</v>
+        <v>5887700</v>
       </c>
       <c r="G21" s="3">
-        <v>5297300</v>
+        <v>5338700</v>
       </c>
       <c r="H21" s="3">
-        <v>6776000</v>
+        <v>6824400</v>
       </c>
       <c r="I21" s="3">
-        <v>7133200</v>
+        <v>7182900</v>
       </c>
       <c r="J21" s="3">
-        <v>6967900</v>
+        <v>7015600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,25 +1044,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>307100</v>
+        <v>308400</v>
       </c>
       <c r="E22" s="3">
-        <v>359800</v>
+        <v>361300</v>
       </c>
       <c r="F22" s="3">
-        <v>481100</v>
+        <v>483000</v>
       </c>
       <c r="G22" s="3">
-        <v>452700</v>
+        <v>454600</v>
       </c>
       <c r="H22" s="3">
-        <v>445500</v>
+        <v>447300</v>
       </c>
       <c r="I22" s="3">
-        <v>487000</v>
+        <v>489000</v>
       </c>
       <c r="J22" s="3">
-        <v>534400</v>
+        <v>536600</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1635000</v>
+        <v>1641700</v>
       </c>
       <c r="E23" s="3">
-        <v>1608600</v>
+        <v>1615200</v>
       </c>
       <c r="F23" s="3">
-        <v>1842600</v>
+        <v>1850100</v>
       </c>
       <c r="G23" s="3">
-        <v>2024400</v>
+        <v>2032700</v>
       </c>
       <c r="H23" s="3">
-        <v>3386600</v>
+        <v>3400500</v>
       </c>
       <c r="I23" s="3">
-        <v>3721400</v>
+        <v>3736600</v>
       </c>
       <c r="J23" s="3">
-        <v>3690400</v>
+        <v>3705500</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>439600</v>
+        <v>441400</v>
       </c>
       <c r="E24" s="3">
-        <v>355200</v>
+        <v>356700</v>
       </c>
       <c r="F24" s="3">
-        <v>630700</v>
+        <v>633200</v>
       </c>
       <c r="G24" s="3">
-        <v>608300</v>
+        <v>610700</v>
       </c>
       <c r="H24" s="3">
-        <v>1042500</v>
+        <v>1046800</v>
       </c>
       <c r="I24" s="3">
-        <v>1168400</v>
+        <v>1173200</v>
       </c>
       <c r="J24" s="3">
-        <v>1165100</v>
+        <v>1169900</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1195400</v>
+        <v>1200300</v>
       </c>
       <c r="E26" s="3">
-        <v>1253400</v>
+        <v>1258600</v>
       </c>
       <c r="F26" s="3">
-        <v>1211900</v>
+        <v>1216900</v>
       </c>
       <c r="G26" s="3">
-        <v>1416200</v>
+        <v>1422000</v>
       </c>
       <c r="H26" s="3">
-        <v>2344100</v>
+        <v>2353700</v>
       </c>
       <c r="I26" s="3">
-        <v>2553000</v>
+        <v>2563400</v>
       </c>
       <c r="J26" s="3">
-        <v>2525300</v>
+        <v>2535600</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1112400</v>
+        <v>1116900</v>
       </c>
       <c r="E27" s="3">
-        <v>1223800</v>
+        <v>1228800</v>
       </c>
       <c r="F27" s="3">
-        <v>1198700</v>
+        <v>1203600</v>
       </c>
       <c r="G27" s="3">
-        <v>1419500</v>
+        <v>1425300</v>
       </c>
       <c r="H27" s="3">
-        <v>2366500</v>
+        <v>2376200</v>
       </c>
       <c r="I27" s="3">
-        <v>2564200</v>
+        <v>2574700</v>
       </c>
       <c r="J27" s="3">
-        <v>2479800</v>
+        <v>2490000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>1329200</v>
+        <v>1334600</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1314,25 +1314,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-533800</v>
+        <v>-536000</v>
       </c>
       <c r="E32" s="3">
-        <v>-963500</v>
+        <v>-967400</v>
       </c>
       <c r="F32" s="3">
-        <v>-1579600</v>
+        <v>-1586100</v>
       </c>
       <c r="G32" s="3">
-        <v>-1716000</v>
+        <v>-1723100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1817500</v>
+        <v>-1825000</v>
       </c>
       <c r="I32" s="3">
-        <v>-1543400</v>
+        <v>-1549700</v>
       </c>
       <c r="J32" s="3">
-        <v>-815200</v>
+        <v>-818500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1112400</v>
+        <v>1116900</v>
       </c>
       <c r="E33" s="3">
-        <v>1223800</v>
+        <v>1228800</v>
       </c>
       <c r="F33" s="3">
-        <v>1198700</v>
+        <v>1203600</v>
       </c>
       <c r="G33" s="3">
-        <v>1419500</v>
+        <v>1425300</v>
       </c>
       <c r="H33" s="3">
-        <v>2366500</v>
+        <v>2376200</v>
       </c>
       <c r="I33" s="3">
-        <v>2564200</v>
+        <v>2574700</v>
       </c>
       <c r="J33" s="3">
-        <v>3809000</v>
+        <v>3824600</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1112400</v>
+        <v>1116900</v>
       </c>
       <c r="E35" s="3">
-        <v>1223800</v>
+        <v>1228800</v>
       </c>
       <c r="F35" s="3">
-        <v>1198700</v>
+        <v>1203600</v>
       </c>
       <c r="G35" s="3">
-        <v>1419500</v>
+        <v>1425300</v>
       </c>
       <c r="H35" s="3">
-        <v>2366500</v>
+        <v>2376200</v>
       </c>
       <c r="I35" s="3">
-        <v>2564200</v>
+        <v>2574700</v>
       </c>
       <c r="J35" s="3">
-        <v>3809000</v>
+        <v>3824600</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>685400</v>
+        <v>688200</v>
       </c>
       <c r="E41" s="3">
-        <v>741400</v>
+        <v>744400</v>
       </c>
       <c r="F41" s="3">
-        <v>328800</v>
+        <v>330200</v>
       </c>
       <c r="G41" s="3">
-        <v>398000</v>
+        <v>399700</v>
       </c>
       <c r="H41" s="3">
-        <v>414500</v>
+        <v>416200</v>
       </c>
       <c r="I41" s="3">
-        <v>1236300</v>
+        <v>1241300</v>
       </c>
       <c r="J41" s="3">
-        <v>2339500</v>
+        <v>2349000</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2696000</v>
+        <v>2707000</v>
       </c>
       <c r="E43" s="3">
-        <v>3019500</v>
+        <v>3031900</v>
       </c>
       <c r="F43" s="3">
-        <v>3376100</v>
+        <v>3389900</v>
       </c>
       <c r="G43" s="3">
-        <v>3557900</v>
+        <v>3572500</v>
       </c>
       <c r="H43" s="3">
-        <v>5691800</v>
+        <v>5715100</v>
       </c>
       <c r="I43" s="3">
-        <v>7624000</v>
+        <v>7655200</v>
       </c>
       <c r="J43" s="3">
-        <v>3127000</v>
+        <v>3139800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>313700</v>
+        <v>315000</v>
       </c>
       <c r="E44" s="3">
-        <v>253700</v>
+        <v>254800</v>
       </c>
       <c r="F44" s="3">
-        <v>275500</v>
+        <v>276600</v>
       </c>
       <c r="G44" s="3">
-        <v>295200</v>
+        <v>296400</v>
       </c>
       <c r="H44" s="3">
-        <v>324200</v>
+        <v>325600</v>
       </c>
       <c r="I44" s="3">
-        <v>897600</v>
+        <v>901200</v>
       </c>
       <c r="J44" s="3">
-        <v>367100</v>
+        <v>368600</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>430300</v>
+        <v>432100</v>
       </c>
       <c r="E45" s="3">
-        <v>673500</v>
+        <v>676300</v>
       </c>
       <c r="F45" s="3">
-        <v>325500</v>
+        <v>326900</v>
       </c>
       <c r="G45" s="3">
-        <v>561500</v>
+        <v>563800</v>
       </c>
       <c r="H45" s="3">
-        <v>378900</v>
+        <v>380500</v>
       </c>
       <c r="I45" s="3">
-        <v>355200</v>
+        <v>356700</v>
       </c>
       <c r="J45" s="3">
-        <v>321600</v>
+        <v>322900</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4125300</v>
+        <v>4142200</v>
       </c>
       <c r="E46" s="3">
-        <v>4688100</v>
+        <v>4707300</v>
       </c>
       <c r="F46" s="3">
-        <v>4305900</v>
+        <v>4323500</v>
       </c>
       <c r="G46" s="3">
-        <v>4812700</v>
+        <v>4832400</v>
       </c>
       <c r="H46" s="3">
-        <v>4804100</v>
+        <v>4823800</v>
       </c>
       <c r="I46" s="3">
-        <v>5303000</v>
+        <v>5324700</v>
       </c>
       <c r="J46" s="3">
-        <v>6155100</v>
+        <v>6180300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1113700</v>
+        <v>1118300</v>
       </c>
       <c r="E47" s="3">
-        <v>1450500</v>
+        <v>1456400</v>
       </c>
       <c r="F47" s="3">
-        <v>1546000</v>
+        <v>1552300</v>
       </c>
       <c r="G47" s="3">
-        <v>1385900</v>
+        <v>1391600</v>
       </c>
       <c r="H47" s="3">
-        <v>1320000</v>
+        <v>1325400</v>
       </c>
       <c r="I47" s="3">
-        <v>1644900</v>
+        <v>1651600</v>
       </c>
       <c r="J47" s="3">
-        <v>1224400</v>
+        <v>1229400</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15427800</v>
+        <v>15491100</v>
       </c>
       <c r="E48" s="3">
-        <v>15628200</v>
+        <v>15692200</v>
       </c>
       <c r="F48" s="3">
-        <v>16164600</v>
+        <v>16230800</v>
       </c>
       <c r="G48" s="3">
-        <v>14716800</v>
+        <v>14777100</v>
       </c>
       <c r="H48" s="3">
-        <v>14569200</v>
+        <v>14628900</v>
       </c>
       <c r="I48" s="3">
-        <v>28139300</v>
+        <v>28254600</v>
       </c>
       <c r="J48" s="3">
-        <v>13562900</v>
+        <v>13618400</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1696,25 +1696,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5374100</v>
+        <v>5396200</v>
       </c>
       <c r="E49" s="3">
-        <v>4699300</v>
+        <v>4718600</v>
       </c>
       <c r="F49" s="3">
-        <v>4884500</v>
+        <v>4904500</v>
       </c>
       <c r="G49" s="3">
-        <v>4751400</v>
+        <v>4770900</v>
       </c>
       <c r="H49" s="3">
-        <v>6049600</v>
+        <v>6074400</v>
       </c>
       <c r="I49" s="3">
-        <v>11779600</v>
+        <v>11827900</v>
       </c>
       <c r="J49" s="3">
-        <v>6081900</v>
+        <v>6106800</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1391800</v>
+        <v>1397500</v>
       </c>
       <c r="E52" s="3">
-        <v>1557900</v>
+        <v>1564300</v>
       </c>
       <c r="F52" s="3">
-        <v>2360500</v>
+        <v>2370200</v>
       </c>
       <c r="G52" s="3">
-        <v>2399400</v>
+        <v>2409200</v>
       </c>
       <c r="H52" s="3">
-        <v>2240600</v>
+        <v>2249800</v>
       </c>
       <c r="I52" s="3">
-        <v>1868300</v>
+        <v>1875900</v>
       </c>
       <c r="J52" s="3">
-        <v>1501200</v>
+        <v>1507400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27432900</v>
+        <v>27545200</v>
       </c>
       <c r="E54" s="3">
-        <v>28024000</v>
+        <v>28138800</v>
       </c>
       <c r="F54" s="3">
-        <v>29261600</v>
+        <v>29381500</v>
       </c>
       <c r="G54" s="3">
-        <v>28066200</v>
+        <v>28181100</v>
       </c>
       <c r="H54" s="3">
-        <v>28154500</v>
+        <v>28269800</v>
       </c>
       <c r="I54" s="3">
-        <v>27682000</v>
+        <v>27795400</v>
       </c>
       <c r="J54" s="3">
-        <v>28525500</v>
+        <v>28642300</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1884,25 +1884,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>854700</v>
+        <v>858200</v>
       </c>
       <c r="E57" s="3">
-        <v>793400</v>
+        <v>796700</v>
       </c>
       <c r="F57" s="3">
-        <v>651100</v>
+        <v>653800</v>
       </c>
       <c r="G57" s="3">
-        <v>559500</v>
+        <v>561800</v>
       </c>
       <c r="H57" s="3">
-        <v>1046500</v>
+        <v>1050800</v>
       </c>
       <c r="I57" s="3">
-        <v>3380000</v>
+        <v>3393900</v>
       </c>
       <c r="J57" s="3">
-        <v>965400</v>
+        <v>969400</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1911,25 +1911,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2095600</v>
+        <v>2104200</v>
       </c>
       <c r="E58" s="3">
-        <v>2724300</v>
+        <v>2735500</v>
       </c>
       <c r="F58" s="3">
-        <v>2223500</v>
+        <v>2232600</v>
       </c>
       <c r="G58" s="3">
-        <v>1464300</v>
+        <v>1470300</v>
       </c>
       <c r="H58" s="3">
-        <v>1077500</v>
+        <v>1081900</v>
       </c>
       <c r="I58" s="3">
-        <v>3263400</v>
+        <v>3276700</v>
       </c>
       <c r="J58" s="3">
-        <v>1749600</v>
+        <v>1756800</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3547400</v>
+        <v>3561900</v>
       </c>
       <c r="E59" s="3">
-        <v>3351700</v>
+        <v>3365400</v>
       </c>
       <c r="F59" s="3">
-        <v>3777400</v>
+        <v>3792900</v>
       </c>
       <c r="G59" s="3">
-        <v>4271600</v>
+        <v>4289100</v>
       </c>
       <c r="H59" s="3">
-        <v>4474000</v>
+        <v>4492300</v>
       </c>
       <c r="I59" s="3">
-        <v>4547800</v>
+        <v>4566400</v>
       </c>
       <c r="J59" s="3">
-        <v>3339800</v>
+        <v>3353500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6497700</v>
+        <v>6524400</v>
       </c>
       <c r="E60" s="3">
-        <v>6869400</v>
+        <v>6897600</v>
       </c>
       <c r="F60" s="3">
-        <v>6651900</v>
+        <v>6679200</v>
       </c>
       <c r="G60" s="3">
-        <v>6295400</v>
+        <v>6321200</v>
       </c>
       <c r="H60" s="3">
-        <v>5789300</v>
+        <v>5813000</v>
       </c>
       <c r="I60" s="3">
-        <v>5984400</v>
+        <v>6008900</v>
       </c>
       <c r="J60" s="3">
-        <v>6054900</v>
+        <v>6079700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1992,25 +1992,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7307700</v>
+        <v>7337600</v>
       </c>
       <c r="E61" s="3">
-        <v>8769300</v>
+        <v>8805200</v>
       </c>
       <c r="F61" s="3">
-        <v>10381200</v>
+        <v>10423800</v>
       </c>
       <c r="G61" s="3">
-        <v>9905400</v>
+        <v>9946000</v>
       </c>
       <c r="H61" s="3">
-        <v>10093200</v>
+        <v>10134600</v>
       </c>
       <c r="I61" s="3">
-        <v>9758500</v>
+        <v>9798500</v>
       </c>
       <c r="J61" s="3">
-        <v>9652400</v>
+        <v>9691900</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2531900</v>
+        <v>2542300</v>
       </c>
       <c r="E62" s="3">
-        <v>2319000</v>
+        <v>2328500</v>
       </c>
       <c r="F62" s="3">
-        <v>2246500</v>
+        <v>2255700</v>
       </c>
       <c r="G62" s="3">
-        <v>2290000</v>
+        <v>2299400</v>
       </c>
       <c r="H62" s="3">
-        <v>3502600</v>
+        <v>3516900</v>
       </c>
       <c r="I62" s="3">
-        <v>3378700</v>
+        <v>3392500</v>
       </c>
       <c r="J62" s="3">
-        <v>2335500</v>
+        <v>2345100</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17317900</v>
+        <v>17388800</v>
       </c>
       <c r="E66" s="3">
-        <v>18410500</v>
+        <v>18485900</v>
       </c>
       <c r="F66" s="3">
-        <v>19723900</v>
+        <v>19804700</v>
       </c>
       <c r="G66" s="3">
-        <v>18478400</v>
+        <v>18554100</v>
       </c>
       <c r="H66" s="3">
-        <v>18512000</v>
+        <v>18587800</v>
       </c>
       <c r="I66" s="3">
-        <v>18369000</v>
+        <v>18444200</v>
       </c>
       <c r="J66" s="3">
-        <v>18066500</v>
+        <v>18140500</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7904700</v>
+        <v>7937100</v>
       </c>
       <c r="E72" s="3">
-        <v>6594600</v>
+        <v>6621600</v>
       </c>
       <c r="F72" s="3">
-        <v>6596600</v>
+        <v>6623600</v>
       </c>
       <c r="G72" s="3">
-        <v>6690800</v>
+        <v>6718200</v>
       </c>
       <c r="H72" s="3">
-        <v>6806200</v>
+        <v>6834000</v>
       </c>
       <c r="I72" s="3">
-        <v>6396900</v>
+        <v>6423100</v>
       </c>
       <c r="J72" s="3">
-        <v>7011800</v>
+        <v>7040500</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10115000</v>
+        <v>10156400</v>
       </c>
       <c r="E76" s="3">
-        <v>9613500</v>
+        <v>9652900</v>
       </c>
       <c r="F76" s="3">
-        <v>9537700</v>
+        <v>9576800</v>
       </c>
       <c r="G76" s="3">
-        <v>9587800</v>
+        <v>9627100</v>
       </c>
       <c r="H76" s="3">
-        <v>9642500</v>
+        <v>9682000</v>
       </c>
       <c r="I76" s="3">
-        <v>9313000</v>
+        <v>9351100</v>
       </c>
       <c r="J76" s="3">
-        <v>10459000</v>
+        <v>10501800</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1112400</v>
+        <v>1116900</v>
       </c>
       <c r="E81" s="3">
-        <v>1223800</v>
+        <v>1228800</v>
       </c>
       <c r="F81" s="3">
-        <v>1198700</v>
+        <v>1203600</v>
       </c>
       <c r="G81" s="3">
-        <v>1419500</v>
+        <v>1425300</v>
       </c>
       <c r="H81" s="3">
-        <v>2366500</v>
+        <v>2376200</v>
       </c>
       <c r="I81" s="3">
-        <v>2564200</v>
+        <v>2574700</v>
       </c>
       <c r="J81" s="3">
-        <v>3809000</v>
+        <v>3824600</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2871900</v>
+        <v>2883700</v>
       </c>
       <c r="E83" s="3">
-        <v>3061700</v>
+        <v>3074300</v>
       </c>
       <c r="F83" s="3">
-        <v>3517700</v>
+        <v>3532200</v>
       </c>
       <c r="G83" s="3">
-        <v>2821800</v>
+        <v>2833400</v>
       </c>
       <c r="H83" s="3">
-        <v>2945700</v>
+        <v>2957800</v>
       </c>
       <c r="I83" s="3">
-        <v>2926600</v>
+        <v>2938600</v>
       </c>
       <c r="J83" s="3">
-        <v>2744700</v>
+        <v>2756000</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4777100</v>
+        <v>4796700</v>
       </c>
       <c r="E89" s="3">
-        <v>4765200</v>
+        <v>4784800</v>
       </c>
       <c r="F89" s="3">
-        <v>4619600</v>
+        <v>4638500</v>
       </c>
       <c r="G89" s="3">
-        <v>4404100</v>
+        <v>4422100</v>
       </c>
       <c r="H89" s="3">
-        <v>5671400</v>
+        <v>5694600</v>
       </c>
       <c r="I89" s="3">
-        <v>5123700</v>
+        <v>5144700</v>
       </c>
       <c r="J89" s="3">
-        <v>5359600</v>
+        <v>5381600</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1434000</v>
+        <v>-1439900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1370100</v>
+        <v>-1375700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1542700</v>
+        <v>-1549000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2131900</v>
+        <v>-2140600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2353300</v>
+        <v>-2362900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2454800</v>
+        <v>-2464800</v>
       </c>
       <c r="J91" s="3">
-        <v>-2010600</v>
+        <v>-2018800</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2237300</v>
+        <v>-2246500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1544700</v>
+        <v>-1551000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1961200</v>
+        <v>-1969200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2382300</v>
+        <v>-2392000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2577300</v>
+        <v>-2587900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2819900</v>
+        <v>-2831400</v>
       </c>
       <c r="J94" s="3">
-        <v>-1454400</v>
+        <v>-1460400</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1244200</v>
+        <v>-1249300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1253400</v>
+        <v>-1258600</v>
       </c>
       <c r="F96" s="3">
-        <v>-1254100</v>
+        <v>-1259200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1488700</v>
+        <v>-1494800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2075900</v>
+        <v>-2084400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2462000</v>
+        <v>-2472100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2495600</v>
+        <v>-2505900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2616900</v>
+        <v>-2627600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2791500</v>
+        <v>-2803000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2726900</v>
+        <v>-2738100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2035000</v>
+        <v>-2043300</v>
       </c>
       <c r="H100" s="3">
-        <v>-3304900</v>
+        <v>-3318400</v>
       </c>
       <c r="I100" s="3">
-        <v>-4022500</v>
+        <v>-4039000</v>
       </c>
       <c r="J100" s="3">
-        <v>-2489000</v>
+        <v>-2499200</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2967,7 +2967,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21100</v>
+        <v>21200</v>
       </c>
       <c r="E101" s="3">
         <v>-16500</v>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56000</v>
+        <v>-56200</v>
       </c>
       <c r="E102" s="3">
-        <v>412500</v>
+        <v>414200</v>
       </c>
       <c r="F102" s="3">
-        <v>-69200</v>
+        <v>-69500</v>
       </c>
       <c r="G102" s="3">
-        <v>-10500</v>
+        <v>-10600</v>
       </c>
       <c r="H102" s="3">
-        <v>-208200</v>
+        <v>-209100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1722600</v>
+        <v>-1729700</v>
       </c>
       <c r="J102" s="3">
-        <v>1419500</v>
+        <v>1425300</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>TLGPY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14079000</v>
+        <v>14717700</v>
       </c>
       <c r="E8" s="3">
-        <v>14264900</v>
+        <v>13793900</v>
       </c>
       <c r="F8" s="3">
-        <v>15688900</v>
+        <v>13976100</v>
       </c>
       <c r="G8" s="3">
-        <v>16713900</v>
+        <v>15371200</v>
       </c>
       <c r="H8" s="3">
-        <v>17103600</v>
+        <v>16375400</v>
       </c>
       <c r="I8" s="3">
-        <v>17212800</v>
+        <v>16757300</v>
       </c>
       <c r="J8" s="3">
+        <v>16864200</v>
+      </c>
+      <c r="K8" s="3">
         <v>17145300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5444500</v>
+        <v>5517700</v>
       </c>
       <c r="E9" s="3">
-        <v>5504000</v>
+        <v>5334200</v>
       </c>
       <c r="F9" s="3">
-        <v>6026100</v>
+        <v>5392600</v>
       </c>
       <c r="G9" s="3">
-        <v>6046600</v>
+        <v>5904100</v>
       </c>
       <c r="H9" s="3">
-        <v>5517300</v>
+        <v>5924200</v>
       </c>
       <c r="I9" s="3">
-        <v>5075900</v>
+        <v>5405500</v>
       </c>
       <c r="J9" s="3">
+        <v>4973100</v>
+      </c>
+      <c r="K9" s="3">
         <v>4795300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8634500</v>
+        <v>9200000</v>
       </c>
       <c r="E10" s="3">
-        <v>8760900</v>
+        <v>8459700</v>
       </c>
       <c r="F10" s="3">
-        <v>9662800</v>
+        <v>8583500</v>
       </c>
       <c r="G10" s="3">
-        <v>10667300</v>
+        <v>9467100</v>
       </c>
       <c r="H10" s="3">
-        <v>11586400</v>
+        <v>10451200</v>
       </c>
       <c r="I10" s="3">
-        <v>12136900</v>
+        <v>11351700</v>
       </c>
       <c r="J10" s="3">
+        <v>11891100</v>
+      </c>
+      <c r="K10" s="3">
         <v>12350000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>222300</v>
+        <v>200300</v>
       </c>
       <c r="E14" s="3">
-        <v>451300</v>
+        <v>217800</v>
       </c>
       <c r="F14" s="3">
-        <v>687500</v>
+        <v>442100</v>
       </c>
       <c r="G14" s="3">
-        <v>1004500</v>
+        <v>673600</v>
       </c>
       <c r="H14" s="3">
-        <v>549200</v>
+        <v>984100</v>
       </c>
       <c r="I14" s="3">
-        <v>361300</v>
+        <v>538100</v>
       </c>
       <c r="J14" s="3">
+        <v>354000</v>
+      </c>
+      <c r="K14" s="3">
         <v>294500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2883700</v>
+        <v>2897900</v>
       </c>
       <c r="E15" s="3">
-        <v>3074300</v>
+        <v>2825300</v>
       </c>
       <c r="F15" s="3">
-        <v>3532200</v>
+        <v>3012000</v>
       </c>
       <c r="G15" s="3">
-        <v>2833400</v>
+        <v>3460600</v>
       </c>
       <c r="H15" s="3">
-        <v>2957800</v>
+        <v>2776000</v>
       </c>
       <c r="I15" s="3">
-        <v>2938600</v>
+        <v>2897900</v>
       </c>
       <c r="J15" s="3">
+        <v>2879100</v>
+      </c>
+      <c r="K15" s="3">
         <v>2749400</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12664900</v>
+        <v>12866800</v>
       </c>
       <c r="E17" s="3">
-        <v>13255800</v>
+        <v>12408500</v>
       </c>
       <c r="F17" s="3">
-        <v>14941800</v>
+        <v>12987400</v>
       </c>
       <c r="G17" s="3">
-        <v>15949600</v>
+        <v>14639300</v>
       </c>
       <c r="H17" s="3">
-        <v>15080800</v>
+        <v>15626600</v>
       </c>
       <c r="I17" s="3">
-        <v>14536900</v>
+        <v>14775400</v>
       </c>
       <c r="J17" s="3">
+        <v>14242500</v>
+      </c>
+      <c r="K17" s="3">
         <v>13721700</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1414100</v>
+        <v>1850900</v>
       </c>
       <c r="E18" s="3">
-        <v>1009100</v>
+        <v>1385400</v>
       </c>
       <c r="F18" s="3">
-        <v>747100</v>
+        <v>988700</v>
       </c>
       <c r="G18" s="3">
-        <v>764300</v>
+        <v>731900</v>
       </c>
       <c r="H18" s="3">
-        <v>2022800</v>
+        <v>748800</v>
       </c>
       <c r="I18" s="3">
-        <v>2675900</v>
+        <v>1981900</v>
       </c>
       <c r="J18" s="3">
+        <v>2621700</v>
+      </c>
+      <c r="K18" s="3">
         <v>3423600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>536000</v>
+        <v>392900</v>
       </c>
       <c r="E20" s="3">
-        <v>967400</v>
+        <v>525100</v>
       </c>
       <c r="F20" s="3">
-        <v>1586100</v>
+        <v>947800</v>
       </c>
       <c r="G20" s="3">
-        <v>1723100</v>
+        <v>1554000</v>
       </c>
       <c r="H20" s="3">
-        <v>1825000</v>
+        <v>1688200</v>
       </c>
       <c r="I20" s="3">
-        <v>1549700</v>
+        <v>1788000</v>
       </c>
       <c r="J20" s="3">
+        <v>1518300</v>
+      </c>
+      <c r="K20" s="3">
         <v>818500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4852000</v>
+        <v>5141700</v>
       </c>
       <c r="E21" s="3">
-        <v>5070300</v>
+        <v>4735800</v>
       </c>
       <c r="F21" s="3">
-        <v>5887700</v>
+        <v>4948500</v>
       </c>
       <c r="G21" s="3">
-        <v>5338700</v>
+        <v>5746500</v>
       </c>
       <c r="H21" s="3">
-        <v>6824400</v>
+        <v>5213000</v>
       </c>
       <c r="I21" s="3">
-        <v>7182900</v>
+        <v>6667800</v>
       </c>
       <c r="J21" s="3">
+        <v>7019100</v>
+      </c>
+      <c r="K21" s="3">
         <v>7015600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>308400</v>
+        <v>387700</v>
       </c>
       <c r="E22" s="3">
-        <v>361300</v>
+        <v>302100</v>
       </c>
       <c r="F22" s="3">
-        <v>483000</v>
+        <v>354000</v>
       </c>
       <c r="G22" s="3">
-        <v>454600</v>
+        <v>473300</v>
       </c>
       <c r="H22" s="3">
-        <v>447300</v>
+        <v>445400</v>
       </c>
       <c r="I22" s="3">
-        <v>489000</v>
+        <v>438300</v>
       </c>
       <c r="J22" s="3">
+        <v>479100</v>
+      </c>
+      <c r="K22" s="3">
         <v>536600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1641700</v>
+        <v>1856100</v>
       </c>
       <c r="E23" s="3">
-        <v>1615200</v>
+        <v>1608400</v>
       </c>
       <c r="F23" s="3">
-        <v>1850100</v>
+        <v>1582500</v>
       </c>
       <c r="G23" s="3">
-        <v>2032700</v>
+        <v>1812600</v>
       </c>
       <c r="H23" s="3">
-        <v>3400500</v>
+        <v>1991600</v>
       </c>
       <c r="I23" s="3">
-        <v>3736600</v>
+        <v>3331600</v>
       </c>
       <c r="J23" s="3">
+        <v>3661000</v>
+      </c>
+      <c r="K23" s="3">
         <v>3705500</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>441400</v>
+        <v>526400</v>
       </c>
       <c r="E24" s="3">
-        <v>356700</v>
+        <v>432400</v>
       </c>
       <c r="F24" s="3">
-        <v>633200</v>
+        <v>349400</v>
       </c>
       <c r="G24" s="3">
-        <v>610700</v>
+        <v>620400</v>
       </c>
       <c r="H24" s="3">
-        <v>1046800</v>
+        <v>598400</v>
       </c>
       <c r="I24" s="3">
-        <v>1173200</v>
+        <v>1025600</v>
       </c>
       <c r="J24" s="3">
+        <v>1149400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1169900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1200300</v>
+        <v>1329700</v>
       </c>
       <c r="E26" s="3">
-        <v>1258600</v>
+        <v>1176000</v>
       </c>
       <c r="F26" s="3">
-        <v>1216900</v>
+        <v>1233100</v>
       </c>
       <c r="G26" s="3">
-        <v>1422000</v>
+        <v>1192200</v>
       </c>
       <c r="H26" s="3">
-        <v>2353700</v>
+        <v>1393200</v>
       </c>
       <c r="I26" s="3">
-        <v>2563400</v>
+        <v>2306000</v>
       </c>
       <c r="J26" s="3">
+        <v>2511500</v>
+      </c>
+      <c r="K26" s="3">
         <v>2535600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1116900</v>
+        <v>1249900</v>
       </c>
       <c r="E27" s="3">
-        <v>1228800</v>
+        <v>1094300</v>
       </c>
       <c r="F27" s="3">
-        <v>1203600</v>
+        <v>1203900</v>
       </c>
       <c r="G27" s="3">
-        <v>1425300</v>
+        <v>1179300</v>
       </c>
       <c r="H27" s="3">
-        <v>2376200</v>
+        <v>1396400</v>
       </c>
       <c r="I27" s="3">
-        <v>2574700</v>
+        <v>2328000</v>
       </c>
       <c r="J27" s="3">
+        <v>2522500</v>
+      </c>
+      <c r="K27" s="3">
         <v>2490000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1247,15 +1307,18 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1334600</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-536000</v>
+        <v>-392900</v>
       </c>
       <c r="E32" s="3">
-        <v>-967400</v>
+        <v>-525100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1586100</v>
+        <v>-947800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1723100</v>
+        <v>-1554000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1825000</v>
+        <v>-1688200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1549700</v>
+        <v>-1788000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1518300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-818500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1116900</v>
+        <v>1249900</v>
       </c>
       <c r="E33" s="3">
-        <v>1228800</v>
+        <v>1094300</v>
       </c>
       <c r="F33" s="3">
-        <v>1203600</v>
+        <v>1203900</v>
       </c>
       <c r="G33" s="3">
-        <v>1425300</v>
+        <v>1179300</v>
       </c>
       <c r="H33" s="3">
-        <v>2376200</v>
+        <v>1396400</v>
       </c>
       <c r="I33" s="3">
-        <v>2574700</v>
+        <v>2328000</v>
       </c>
       <c r="J33" s="3">
+        <v>2522500</v>
+      </c>
+      <c r="K33" s="3">
         <v>3824600</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1116900</v>
+        <v>1249900</v>
       </c>
       <c r="E35" s="3">
-        <v>1228800</v>
+        <v>1094300</v>
       </c>
       <c r="F35" s="3">
-        <v>1203600</v>
+        <v>1203900</v>
       </c>
       <c r="G35" s="3">
-        <v>1425300</v>
+        <v>1179300</v>
       </c>
       <c r="H35" s="3">
-        <v>2376200</v>
+        <v>1396400</v>
       </c>
       <c r="I35" s="3">
-        <v>2574700</v>
+        <v>2328000</v>
       </c>
       <c r="J35" s="3">
+        <v>2522500</v>
+      </c>
+      <c r="K35" s="3">
         <v>3824600</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>688200</v>
+        <v>604200</v>
       </c>
       <c r="E41" s="3">
-        <v>744400</v>
+        <v>674200</v>
       </c>
       <c r="F41" s="3">
-        <v>330200</v>
+        <v>729300</v>
       </c>
       <c r="G41" s="3">
-        <v>399700</v>
+        <v>323500</v>
       </c>
       <c r="H41" s="3">
-        <v>416200</v>
+        <v>391600</v>
       </c>
       <c r="I41" s="3">
-        <v>1241300</v>
+        <v>407800</v>
       </c>
       <c r="J41" s="3">
+        <v>1216200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2349000</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1527,117 +1616,132 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2707000</v>
+        <v>2831800</v>
       </c>
       <c r="E43" s="3">
-        <v>3031900</v>
+        <v>2652200</v>
       </c>
       <c r="F43" s="3">
-        <v>3389900</v>
+        <v>2970500</v>
       </c>
       <c r="G43" s="3">
-        <v>3572500</v>
+        <v>3321200</v>
       </c>
       <c r="H43" s="3">
-        <v>5715100</v>
+        <v>3500200</v>
       </c>
       <c r="I43" s="3">
-        <v>7655200</v>
+        <v>5599400</v>
       </c>
       <c r="J43" s="3">
+        <v>7500200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3139800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>315000</v>
+        <v>354000</v>
       </c>
       <c r="E44" s="3">
-        <v>254800</v>
+        <v>308600</v>
       </c>
       <c r="F44" s="3">
-        <v>276600</v>
+        <v>249600</v>
       </c>
       <c r="G44" s="3">
-        <v>296400</v>
+        <v>271000</v>
       </c>
       <c r="H44" s="3">
-        <v>325600</v>
+        <v>290400</v>
       </c>
       <c r="I44" s="3">
-        <v>901200</v>
+        <v>319000</v>
       </c>
       <c r="J44" s="3">
+        <v>883000</v>
+      </c>
+      <c r="K44" s="3">
         <v>368600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>432100</v>
+        <v>575000</v>
       </c>
       <c r="E45" s="3">
-        <v>676300</v>
+        <v>423300</v>
       </c>
       <c r="F45" s="3">
-        <v>326900</v>
+        <v>662600</v>
       </c>
       <c r="G45" s="3">
-        <v>563800</v>
+        <v>320300</v>
       </c>
       <c r="H45" s="3">
-        <v>380500</v>
+        <v>552400</v>
       </c>
       <c r="I45" s="3">
-        <v>356700</v>
+        <v>372800</v>
       </c>
       <c r="J45" s="3">
+        <v>349400</v>
+      </c>
+      <c r="K45" s="3">
         <v>322900</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4142200</v>
+        <v>4365000</v>
       </c>
       <c r="E46" s="3">
-        <v>4707300</v>
+        <v>4058400</v>
       </c>
       <c r="F46" s="3">
-        <v>4323500</v>
+        <v>4612000</v>
       </c>
       <c r="G46" s="3">
-        <v>4832400</v>
+        <v>4236000</v>
       </c>
       <c r="H46" s="3">
-        <v>4823800</v>
+        <v>4734500</v>
       </c>
       <c r="I46" s="3">
-        <v>5324700</v>
+        <v>4726100</v>
       </c>
       <c r="J46" s="3">
+        <v>5216900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6180300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1645,80 +1749,89 @@
         <v>1118300</v>
       </c>
       <c r="E47" s="3">
-        <v>1456400</v>
+        <v>1095600</v>
       </c>
       <c r="F47" s="3">
-        <v>1552300</v>
+        <v>1426900</v>
       </c>
       <c r="G47" s="3">
-        <v>1391600</v>
+        <v>1520900</v>
       </c>
       <c r="H47" s="3">
-        <v>1325400</v>
+        <v>1363400</v>
       </c>
       <c r="I47" s="3">
-        <v>1651600</v>
+        <v>1298500</v>
       </c>
       <c r="J47" s="3">
+        <v>1618200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1229400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15491100</v>
+        <v>15425700</v>
       </c>
       <c r="E48" s="3">
-        <v>15692200</v>
+        <v>15177400</v>
       </c>
       <c r="F48" s="3">
-        <v>16230800</v>
+        <v>15374400</v>
       </c>
       <c r="G48" s="3">
-        <v>14777100</v>
+        <v>15902200</v>
       </c>
       <c r="H48" s="3">
-        <v>14628900</v>
+        <v>14477800</v>
       </c>
       <c r="I48" s="3">
-        <v>28254600</v>
+        <v>14332600</v>
       </c>
       <c r="J48" s="3">
+        <v>27682400</v>
+      </c>
+      <c r="K48" s="3">
         <v>13618400</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5396200</v>
+        <v>7124200</v>
       </c>
       <c r="E49" s="3">
-        <v>4718600</v>
+        <v>5286900</v>
       </c>
       <c r="F49" s="3">
-        <v>4904500</v>
+        <v>4623000</v>
       </c>
       <c r="G49" s="3">
-        <v>4770900</v>
+        <v>4805200</v>
       </c>
       <c r="H49" s="3">
-        <v>6074400</v>
+        <v>4674200</v>
       </c>
       <c r="I49" s="3">
-        <v>11827900</v>
+        <v>5951400</v>
       </c>
       <c r="J49" s="3">
+        <v>11588400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6106800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1397500</v>
+        <v>1159200</v>
       </c>
       <c r="E52" s="3">
-        <v>1564300</v>
+        <v>1369200</v>
       </c>
       <c r="F52" s="3">
-        <v>2370200</v>
+        <v>1532600</v>
       </c>
       <c r="G52" s="3">
-        <v>2409200</v>
+        <v>2322200</v>
       </c>
       <c r="H52" s="3">
-        <v>2249800</v>
+        <v>2360500</v>
       </c>
       <c r="I52" s="3">
-        <v>1875900</v>
+        <v>2204200</v>
       </c>
       <c r="J52" s="3">
+        <v>1837900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1507400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27545200</v>
+        <v>29192300</v>
       </c>
       <c r="E54" s="3">
-        <v>28138800</v>
+        <v>26987400</v>
       </c>
       <c r="F54" s="3">
-        <v>29381500</v>
+        <v>27569000</v>
       </c>
       <c r="G54" s="3">
-        <v>28181100</v>
+        <v>28786500</v>
       </c>
       <c r="H54" s="3">
-        <v>28269800</v>
+        <v>27610400</v>
       </c>
       <c r="I54" s="3">
-        <v>27795400</v>
+        <v>27697300</v>
       </c>
       <c r="J54" s="3">
+        <v>27232500</v>
+      </c>
+      <c r="K54" s="3">
         <v>28642300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>858200</v>
+        <v>1031400</v>
       </c>
       <c r="E57" s="3">
-        <v>796700</v>
+        <v>853800</v>
       </c>
       <c r="F57" s="3">
-        <v>653800</v>
+        <v>780600</v>
       </c>
       <c r="G57" s="3">
-        <v>561800</v>
+        <v>640500</v>
       </c>
       <c r="H57" s="3">
-        <v>1050800</v>
+        <v>550400</v>
       </c>
       <c r="I57" s="3">
-        <v>3393900</v>
+        <v>1029500</v>
       </c>
       <c r="J57" s="3">
+        <v>3325100</v>
+      </c>
+      <c r="K57" s="3">
         <v>969400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2104200</v>
+        <v>2016200</v>
       </c>
       <c r="E58" s="3">
-        <v>2735500</v>
+        <v>2061600</v>
       </c>
       <c r="F58" s="3">
-        <v>2232600</v>
+        <v>2680100</v>
       </c>
       <c r="G58" s="3">
-        <v>1470300</v>
+        <v>2187400</v>
       </c>
       <c r="H58" s="3">
-        <v>1081900</v>
+        <v>1440500</v>
       </c>
       <c r="I58" s="3">
-        <v>3276700</v>
+        <v>1060000</v>
       </c>
       <c r="J58" s="3">
+        <v>3210400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1756800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3561900</v>
+        <v>3495000</v>
       </c>
       <c r="E59" s="3">
-        <v>3365400</v>
+        <v>3371800</v>
       </c>
       <c r="F59" s="3">
-        <v>3792900</v>
+        <v>3297300</v>
       </c>
       <c r="G59" s="3">
-        <v>4289100</v>
+        <v>3716100</v>
       </c>
       <c r="H59" s="3">
-        <v>4492300</v>
+        <v>4202300</v>
       </c>
       <c r="I59" s="3">
-        <v>4566400</v>
+        <v>4401300</v>
       </c>
       <c r="J59" s="3">
+        <v>4473900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3353500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6524400</v>
+        <v>6542600</v>
       </c>
       <c r="E60" s="3">
-        <v>6897600</v>
+        <v>6287200</v>
       </c>
       <c r="F60" s="3">
-        <v>6679200</v>
+        <v>6757900</v>
       </c>
       <c r="G60" s="3">
-        <v>6321200</v>
+        <v>6543900</v>
       </c>
       <c r="H60" s="3">
-        <v>5813000</v>
+        <v>6193200</v>
       </c>
       <c r="I60" s="3">
-        <v>6008900</v>
+        <v>5695300</v>
       </c>
       <c r="J60" s="3">
+        <v>5887200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6079700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7337600</v>
+        <v>8269700</v>
       </c>
       <c r="E61" s="3">
-        <v>8805200</v>
+        <v>7189000</v>
       </c>
       <c r="F61" s="3">
-        <v>10423800</v>
+        <v>8626900</v>
       </c>
       <c r="G61" s="3">
-        <v>9946000</v>
+        <v>10212700</v>
       </c>
       <c r="H61" s="3">
-        <v>10134600</v>
+        <v>9744600</v>
       </c>
       <c r="I61" s="3">
-        <v>9798500</v>
+        <v>9929400</v>
       </c>
       <c r="J61" s="3">
+        <v>9600000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9691900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2542300</v>
+        <v>2829800</v>
       </c>
       <c r="E62" s="3">
-        <v>2328500</v>
+        <v>2505700</v>
       </c>
       <c r="F62" s="3">
-        <v>2255700</v>
+        <v>2281400</v>
       </c>
       <c r="G62" s="3">
-        <v>2299400</v>
+        <v>2210100</v>
       </c>
       <c r="H62" s="3">
-        <v>3516900</v>
+        <v>2252800</v>
       </c>
       <c r="I62" s="3">
-        <v>3392500</v>
+        <v>3445700</v>
       </c>
       <c r="J62" s="3">
+        <v>3323800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2345100</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17388800</v>
+        <v>19203900</v>
       </c>
       <c r="E66" s="3">
-        <v>18485900</v>
+        <v>16946600</v>
       </c>
       <c r="F66" s="3">
-        <v>19804700</v>
+        <v>18111600</v>
       </c>
       <c r="G66" s="3">
-        <v>18554100</v>
+        <v>19403600</v>
       </c>
       <c r="H66" s="3">
-        <v>18587800</v>
+        <v>18178300</v>
       </c>
       <c r="I66" s="3">
-        <v>18444200</v>
+        <v>18211400</v>
       </c>
       <c r="J66" s="3">
+        <v>18070700</v>
+      </c>
+      <c r="K66" s="3">
         <v>18140500</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7937100</v>
+        <v>7904700</v>
       </c>
       <c r="E72" s="3">
-        <v>6621600</v>
+        <v>7866500</v>
       </c>
       <c r="F72" s="3">
-        <v>6623600</v>
+        <v>6487500</v>
       </c>
       <c r="G72" s="3">
-        <v>6718200</v>
+        <v>6489500</v>
       </c>
       <c r="H72" s="3">
-        <v>6834000</v>
+        <v>6582200</v>
       </c>
       <c r="I72" s="3">
-        <v>6423100</v>
+        <v>6695600</v>
       </c>
       <c r="J72" s="3">
+        <v>6293000</v>
+      </c>
+      <c r="K72" s="3">
         <v>7040500</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10156400</v>
+        <v>9988400</v>
       </c>
       <c r="E76" s="3">
-        <v>9652900</v>
+        <v>10040900</v>
       </c>
       <c r="F76" s="3">
-        <v>9576800</v>
+        <v>9457400</v>
       </c>
       <c r="G76" s="3">
-        <v>9627100</v>
+        <v>9382800</v>
       </c>
       <c r="H76" s="3">
-        <v>9682000</v>
+        <v>9432100</v>
       </c>
       <c r="I76" s="3">
-        <v>9351100</v>
+        <v>9485900</v>
       </c>
       <c r="J76" s="3">
+        <v>9161800</v>
+      </c>
+      <c r="K76" s="3">
         <v>10501800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1116900</v>
+        <v>1249900</v>
       </c>
       <c r="E81" s="3">
-        <v>1228800</v>
+        <v>1094300</v>
       </c>
       <c r="F81" s="3">
-        <v>1203600</v>
+        <v>1203900</v>
       </c>
       <c r="G81" s="3">
-        <v>1425300</v>
+        <v>1179300</v>
       </c>
       <c r="H81" s="3">
-        <v>2376200</v>
+        <v>1396400</v>
       </c>
       <c r="I81" s="3">
-        <v>2574700</v>
+        <v>2328000</v>
       </c>
       <c r="J81" s="3">
+        <v>2522500</v>
+      </c>
+      <c r="K81" s="3">
         <v>3824600</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2883700</v>
+        <v>2897900</v>
       </c>
       <c r="E83" s="3">
-        <v>3074300</v>
+        <v>2825300</v>
       </c>
       <c r="F83" s="3">
-        <v>3532200</v>
+        <v>3012000</v>
       </c>
       <c r="G83" s="3">
-        <v>2833400</v>
+        <v>3460600</v>
       </c>
       <c r="H83" s="3">
-        <v>2957800</v>
+        <v>2776000</v>
       </c>
       <c r="I83" s="3">
-        <v>2938600</v>
+        <v>2897900</v>
       </c>
       <c r="J83" s="3">
+        <v>2879100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2756000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4796700</v>
+        <v>4409700</v>
       </c>
       <c r="E89" s="3">
-        <v>4784800</v>
+        <v>4699500</v>
       </c>
       <c r="F89" s="3">
-        <v>4638500</v>
+        <v>4687900</v>
       </c>
       <c r="G89" s="3">
-        <v>4422100</v>
+        <v>4544600</v>
       </c>
       <c r="H89" s="3">
-        <v>5694600</v>
+        <v>4332600</v>
       </c>
       <c r="I89" s="3">
-        <v>5144700</v>
+        <v>5579300</v>
       </c>
       <c r="J89" s="3">
+        <v>5040500</v>
+      </c>
+      <c r="K89" s="3">
         <v>5381600</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1439900</v>
+        <v>-1603900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1375700</v>
+        <v>-1410700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1549000</v>
+        <v>-1347800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2140600</v>
+        <v>-1517700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2362900</v>
+        <v>-2097300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2464800</v>
+        <v>-2315100</v>
       </c>
       <c r="J91" s="3">
+        <v>-2414900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2018800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2246500</v>
+        <v>-3858000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1551000</v>
+        <v>-2201000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1969200</v>
+        <v>-1519600</v>
       </c>
       <c r="G94" s="3">
-        <v>-2392000</v>
+        <v>-1929300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2587900</v>
+        <v>-2343600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2831400</v>
+        <v>-2535500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2774100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1460400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1249300</v>
+        <v>-1273300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1258600</v>
+        <v>-1224000</v>
       </c>
       <c r="F96" s="3">
-        <v>-1259200</v>
+        <v>-1233100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1494800</v>
+        <v>-1233700</v>
       </c>
       <c r="H96" s="3">
-        <v>-2084400</v>
+        <v>-1464500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2472100</v>
+        <v>-2042100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2422000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2505900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2627600</v>
+        <v>-628200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2803000</v>
+        <v>-2574400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2738100</v>
+        <v>-2746200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2043300</v>
+        <v>-2682700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3318400</v>
+        <v>-2002000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4039000</v>
+        <v>-3251200</v>
       </c>
       <c r="J100" s="3">
+        <v>-3957200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2499200</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>21200</v>
+        <v>6500</v>
       </c>
       <c r="E101" s="3">
-        <v>-16500</v>
+        <v>20700</v>
       </c>
       <c r="F101" s="3">
-        <v>-700</v>
+        <v>-16200</v>
       </c>
       <c r="G101" s="3">
-        <v>2600</v>
+        <v>-600</v>
       </c>
       <c r="H101" s="3">
         <v>2600</v>
       </c>
       <c r="I101" s="3">
-        <v>-4000</v>
+        <v>2600</v>
       </c>
       <c r="J101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56200</v>
+        <v>-70000</v>
       </c>
       <c r="E102" s="3">
-        <v>414200</v>
+        <v>-55100</v>
       </c>
       <c r="F102" s="3">
-        <v>-69500</v>
+        <v>405800</v>
       </c>
       <c r="G102" s="3">
-        <v>-10600</v>
+        <v>-68100</v>
       </c>
       <c r="H102" s="3">
-        <v>-209100</v>
+        <v>-10400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1729700</v>
+        <v>-204900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1694700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1425300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TLGPY_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14717700</v>
+        <v>14688200</v>
       </c>
       <c r="E8" s="3">
-        <v>13793900</v>
+        <v>13766200</v>
       </c>
       <c r="F8" s="3">
-        <v>13976100</v>
+        <v>13948000</v>
       </c>
       <c r="G8" s="3">
-        <v>15371200</v>
+        <v>15340400</v>
       </c>
       <c r="H8" s="3">
-        <v>16375400</v>
+        <v>16342600</v>
       </c>
       <c r="I8" s="3">
-        <v>16757300</v>
+        <v>16723700</v>
       </c>
       <c r="J8" s="3">
-        <v>16864200</v>
+        <v>16830400</v>
       </c>
       <c r="K8" s="3">
         <v>17145300</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5517700</v>
+        <v>5506600</v>
       </c>
       <c r="E9" s="3">
-        <v>5334200</v>
+        <v>5323500</v>
       </c>
       <c r="F9" s="3">
-        <v>5392600</v>
+        <v>5381700</v>
       </c>
       <c r="G9" s="3">
-        <v>5904100</v>
+        <v>5892200</v>
       </c>
       <c r="H9" s="3">
-        <v>5924200</v>
+        <v>5912300</v>
       </c>
       <c r="I9" s="3">
-        <v>5405500</v>
+        <v>5394700</v>
       </c>
       <c r="J9" s="3">
-        <v>4973100</v>
+        <v>4963100</v>
       </c>
       <c r="K9" s="3">
         <v>4795300</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9200000</v>
+        <v>9181600</v>
       </c>
       <c r="E10" s="3">
-        <v>8459700</v>
+        <v>8442700</v>
       </c>
       <c r="F10" s="3">
-        <v>8583500</v>
+        <v>8566300</v>
       </c>
       <c r="G10" s="3">
-        <v>9467100</v>
+        <v>9448100</v>
       </c>
       <c r="H10" s="3">
-        <v>10451200</v>
+        <v>10430300</v>
       </c>
       <c r="I10" s="3">
-        <v>11351700</v>
+        <v>11329000</v>
       </c>
       <c r="J10" s="3">
-        <v>11891100</v>
+        <v>11867300</v>
       </c>
       <c r="K10" s="3">
         <v>12350000</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>200300</v>
+        <v>199900</v>
       </c>
       <c r="E14" s="3">
-        <v>217800</v>
+        <v>217400</v>
       </c>
       <c r="F14" s="3">
-        <v>442100</v>
+        <v>441300</v>
       </c>
       <c r="G14" s="3">
-        <v>673600</v>
+        <v>672200</v>
       </c>
       <c r="H14" s="3">
-        <v>984100</v>
+        <v>982100</v>
       </c>
       <c r="I14" s="3">
-        <v>538100</v>
+        <v>537000</v>
       </c>
       <c r="J14" s="3">
-        <v>354000</v>
+        <v>353300</v>
       </c>
       <c r="K14" s="3">
         <v>294500</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2897900</v>
+        <v>2892100</v>
       </c>
       <c r="E15" s="3">
-        <v>2825300</v>
+        <v>2819600</v>
       </c>
       <c r="F15" s="3">
-        <v>3012000</v>
+        <v>3006000</v>
       </c>
       <c r="G15" s="3">
-        <v>3460600</v>
+        <v>3453700</v>
       </c>
       <c r="H15" s="3">
-        <v>2776000</v>
+        <v>2770500</v>
       </c>
       <c r="I15" s="3">
-        <v>2897900</v>
+        <v>2892100</v>
       </c>
       <c r="J15" s="3">
-        <v>2879100</v>
+        <v>2873300</v>
       </c>
       <c r="K15" s="3">
         <v>2749400</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12866800</v>
+        <v>12841000</v>
       </c>
       <c r="E17" s="3">
-        <v>12408500</v>
+        <v>12383600</v>
       </c>
       <c r="F17" s="3">
-        <v>12987400</v>
+        <v>12961400</v>
       </c>
       <c r="G17" s="3">
-        <v>14639300</v>
+        <v>14609900</v>
       </c>
       <c r="H17" s="3">
-        <v>15626600</v>
+        <v>15595300</v>
       </c>
       <c r="I17" s="3">
-        <v>14775400</v>
+        <v>14745800</v>
       </c>
       <c r="J17" s="3">
-        <v>14242500</v>
+        <v>14213900</v>
       </c>
       <c r="K17" s="3">
         <v>13721700</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1850900</v>
+        <v>1847200</v>
       </c>
       <c r="E18" s="3">
-        <v>1385400</v>
+        <v>1382600</v>
       </c>
       <c r="F18" s="3">
-        <v>988700</v>
+        <v>986700</v>
       </c>
       <c r="G18" s="3">
-        <v>731900</v>
+        <v>730500</v>
       </c>
       <c r="H18" s="3">
-        <v>748800</v>
+        <v>747300</v>
       </c>
       <c r="I18" s="3">
-        <v>1981900</v>
+        <v>1977900</v>
       </c>
       <c r="J18" s="3">
-        <v>2621700</v>
+        <v>2616500</v>
       </c>
       <c r="K18" s="3">
         <v>3423600</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>392900</v>
+        <v>392100</v>
       </c>
       <c r="E20" s="3">
-        <v>525100</v>
+        <v>524100</v>
       </c>
       <c r="F20" s="3">
-        <v>947800</v>
+        <v>945900</v>
       </c>
       <c r="G20" s="3">
-        <v>1554000</v>
+        <v>1550900</v>
       </c>
       <c r="H20" s="3">
-        <v>1688200</v>
+        <v>1684800</v>
       </c>
       <c r="I20" s="3">
-        <v>1788000</v>
+        <v>1784400</v>
       </c>
       <c r="J20" s="3">
-        <v>1518300</v>
+        <v>1515300</v>
       </c>
       <c r="K20" s="3">
         <v>818500</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5141700</v>
+        <v>5147000</v>
       </c>
       <c r="E21" s="3">
-        <v>4735800</v>
+        <v>4741600</v>
       </c>
       <c r="F21" s="3">
-        <v>4948500</v>
+        <v>4954800</v>
       </c>
       <c r="G21" s="3">
-        <v>5746500</v>
+        <v>5753700</v>
       </c>
       <c r="H21" s="3">
-        <v>5213000</v>
+        <v>5217500</v>
       </c>
       <c r="I21" s="3">
-        <v>6667800</v>
+        <v>6670000</v>
       </c>
       <c r="J21" s="3">
-        <v>7019100</v>
+        <v>7020600</v>
       </c>
       <c r="K21" s="3">
         <v>7015600</v>
@@ -1083,25 +1083,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>387700</v>
+        <v>386900</v>
       </c>
       <c r="E22" s="3">
-        <v>302100</v>
+        <v>301500</v>
       </c>
       <c r="F22" s="3">
-        <v>354000</v>
+        <v>353300</v>
       </c>
       <c r="G22" s="3">
-        <v>473300</v>
+        <v>472300</v>
       </c>
       <c r="H22" s="3">
-        <v>445400</v>
+        <v>444500</v>
       </c>
       <c r="I22" s="3">
-        <v>438300</v>
+        <v>437400</v>
       </c>
       <c r="J22" s="3">
-        <v>479100</v>
+        <v>478100</v>
       </c>
       <c r="K22" s="3">
         <v>536600</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1856100</v>
+        <v>1852400</v>
       </c>
       <c r="E23" s="3">
-        <v>1608400</v>
+        <v>1605200</v>
       </c>
       <c r="F23" s="3">
-        <v>1582500</v>
+        <v>1579300</v>
       </c>
       <c r="G23" s="3">
-        <v>1812600</v>
+        <v>1809000</v>
       </c>
       <c r="H23" s="3">
-        <v>1991600</v>
+        <v>1987600</v>
       </c>
       <c r="I23" s="3">
-        <v>3331600</v>
+        <v>3324900</v>
       </c>
       <c r="J23" s="3">
-        <v>3661000</v>
+        <v>3653600</v>
       </c>
       <c r="K23" s="3">
         <v>3705500</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>526400</v>
+        <v>525400</v>
       </c>
       <c r="E24" s="3">
-        <v>432400</v>
+        <v>431500</v>
       </c>
       <c r="F24" s="3">
-        <v>349400</v>
+        <v>348700</v>
       </c>
       <c r="G24" s="3">
-        <v>620400</v>
+        <v>619200</v>
       </c>
       <c r="H24" s="3">
-        <v>598400</v>
+        <v>597200</v>
       </c>
       <c r="I24" s="3">
-        <v>1025600</v>
+        <v>1023600</v>
       </c>
       <c r="J24" s="3">
-        <v>1149400</v>
+        <v>1147100</v>
       </c>
       <c r="K24" s="3">
         <v>1169900</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1329700</v>
+        <v>1327000</v>
       </c>
       <c r="E26" s="3">
-        <v>1176000</v>
+        <v>1173700</v>
       </c>
       <c r="F26" s="3">
-        <v>1233100</v>
+        <v>1230600</v>
       </c>
       <c r="G26" s="3">
-        <v>1192200</v>
+        <v>1189800</v>
       </c>
       <c r="H26" s="3">
-        <v>1393200</v>
+        <v>1390400</v>
       </c>
       <c r="I26" s="3">
-        <v>2306000</v>
+        <v>2301400</v>
       </c>
       <c r="J26" s="3">
-        <v>2511500</v>
+        <v>2506500</v>
       </c>
       <c r="K26" s="3">
         <v>2535600</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1249900</v>
+        <v>1247400</v>
       </c>
       <c r="E27" s="3">
-        <v>1094300</v>
+        <v>1092100</v>
       </c>
       <c r="F27" s="3">
-        <v>1203900</v>
+        <v>1201500</v>
       </c>
       <c r="G27" s="3">
-        <v>1179300</v>
+        <v>1176900</v>
       </c>
       <c r="H27" s="3">
-        <v>1396400</v>
+        <v>1393600</v>
       </c>
       <c r="I27" s="3">
-        <v>2328000</v>
+        <v>2323400</v>
       </c>
       <c r="J27" s="3">
-        <v>2522500</v>
+        <v>2517500</v>
       </c>
       <c r="K27" s="3">
         <v>2490000</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-392900</v>
+        <v>-392100</v>
       </c>
       <c r="E32" s="3">
-        <v>-525100</v>
+        <v>-524100</v>
       </c>
       <c r="F32" s="3">
-        <v>-947800</v>
+        <v>-945900</v>
       </c>
       <c r="G32" s="3">
-        <v>-1554000</v>
+        <v>-1550900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1688200</v>
+        <v>-1684800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1788000</v>
+        <v>-1784400</v>
       </c>
       <c r="J32" s="3">
-        <v>-1518300</v>
+        <v>-1515300</v>
       </c>
       <c r="K32" s="3">
         <v>-818500</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1249900</v>
+        <v>1247400</v>
       </c>
       <c r="E33" s="3">
-        <v>1094300</v>
+        <v>1092100</v>
       </c>
       <c r="F33" s="3">
-        <v>1203900</v>
+        <v>1201500</v>
       </c>
       <c r="G33" s="3">
-        <v>1179300</v>
+        <v>1176900</v>
       </c>
       <c r="H33" s="3">
-        <v>1396400</v>
+        <v>1393600</v>
       </c>
       <c r="I33" s="3">
-        <v>2328000</v>
+        <v>2323400</v>
       </c>
       <c r="J33" s="3">
-        <v>2522500</v>
+        <v>2517500</v>
       </c>
       <c r="K33" s="3">
         <v>3824600</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1249900</v>
+        <v>1247400</v>
       </c>
       <c r="E35" s="3">
-        <v>1094300</v>
+        <v>1092100</v>
       </c>
       <c r="F35" s="3">
-        <v>1203900</v>
+        <v>1201500</v>
       </c>
       <c r="G35" s="3">
-        <v>1179300</v>
+        <v>1176900</v>
       </c>
       <c r="H35" s="3">
-        <v>1396400</v>
+        <v>1393600</v>
       </c>
       <c r="I35" s="3">
-        <v>2328000</v>
+        <v>2323400</v>
       </c>
       <c r="J35" s="3">
-        <v>2522500</v>
+        <v>2517500</v>
       </c>
       <c r="K35" s="3">
         <v>3824600</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>604200</v>
+        <v>603000</v>
       </c>
       <c r="E41" s="3">
-        <v>674200</v>
+        <v>672900</v>
       </c>
       <c r="F41" s="3">
-        <v>729300</v>
+        <v>727900</v>
       </c>
       <c r="G41" s="3">
-        <v>323500</v>
+        <v>322900</v>
       </c>
       <c r="H41" s="3">
-        <v>391600</v>
+        <v>390800</v>
       </c>
       <c r="I41" s="3">
-        <v>407800</v>
+        <v>407000</v>
       </c>
       <c r="J41" s="3">
-        <v>1216200</v>
+        <v>1213800</v>
       </c>
       <c r="K41" s="3">
         <v>2349000</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2831800</v>
+        <v>2826100</v>
       </c>
       <c r="E43" s="3">
-        <v>2652200</v>
+        <v>2646900</v>
       </c>
       <c r="F43" s="3">
-        <v>2970500</v>
+        <v>2964600</v>
       </c>
       <c r="G43" s="3">
-        <v>3321200</v>
+        <v>3314600</v>
       </c>
       <c r="H43" s="3">
-        <v>3500200</v>
+        <v>3493200</v>
       </c>
       <c r="I43" s="3">
-        <v>5599400</v>
+        <v>5588100</v>
       </c>
       <c r="J43" s="3">
-        <v>7500200</v>
+        <v>7485100</v>
       </c>
       <c r="K43" s="3">
         <v>3139800</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>354000</v>
+        <v>353300</v>
       </c>
       <c r="E44" s="3">
-        <v>308600</v>
+        <v>308000</v>
       </c>
       <c r="F44" s="3">
-        <v>249600</v>
+        <v>249100</v>
       </c>
       <c r="G44" s="3">
-        <v>271000</v>
+        <v>270400</v>
       </c>
       <c r="H44" s="3">
-        <v>290400</v>
+        <v>289900</v>
       </c>
       <c r="I44" s="3">
-        <v>319000</v>
+        <v>318300</v>
       </c>
       <c r="J44" s="3">
-        <v>883000</v>
+        <v>881200</v>
       </c>
       <c r="K44" s="3">
         <v>368600</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>575000</v>
+        <v>573900</v>
       </c>
       <c r="E45" s="3">
-        <v>423300</v>
+        <v>422500</v>
       </c>
       <c r="F45" s="3">
-        <v>662600</v>
+        <v>661200</v>
       </c>
       <c r="G45" s="3">
-        <v>320300</v>
+        <v>319600</v>
       </c>
       <c r="H45" s="3">
-        <v>552400</v>
+        <v>551200</v>
       </c>
       <c r="I45" s="3">
-        <v>372800</v>
+        <v>372000</v>
       </c>
       <c r="J45" s="3">
-        <v>349400</v>
+        <v>348700</v>
       </c>
       <c r="K45" s="3">
         <v>322900</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4365000</v>
+        <v>4356300</v>
       </c>
       <c r="E46" s="3">
-        <v>4058400</v>
+        <v>4050200</v>
       </c>
       <c r="F46" s="3">
-        <v>4612000</v>
+        <v>4602800</v>
       </c>
       <c r="G46" s="3">
-        <v>4236000</v>
+        <v>4227500</v>
       </c>
       <c r="H46" s="3">
-        <v>4734500</v>
+        <v>4725000</v>
       </c>
       <c r="I46" s="3">
-        <v>4726100</v>
+        <v>4716600</v>
       </c>
       <c r="J46" s="3">
-        <v>5216900</v>
+        <v>5206400</v>
       </c>
       <c r="K46" s="3">
         <v>6180300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1118300</v>
+        <v>1116100</v>
       </c>
       <c r="E47" s="3">
-        <v>1095600</v>
+        <v>1093400</v>
       </c>
       <c r="F47" s="3">
-        <v>1426900</v>
+        <v>1424000</v>
       </c>
       <c r="G47" s="3">
-        <v>1520900</v>
+        <v>1517900</v>
       </c>
       <c r="H47" s="3">
-        <v>1363400</v>
+        <v>1360600</v>
       </c>
       <c r="I47" s="3">
-        <v>1298500</v>
+        <v>1295900</v>
       </c>
       <c r="J47" s="3">
-        <v>1618200</v>
+        <v>1614900</v>
       </c>
       <c r="K47" s="3">
         <v>1229400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>15425700</v>
+        <v>15394700</v>
       </c>
       <c r="E48" s="3">
-        <v>15177400</v>
+        <v>15146900</v>
       </c>
       <c r="F48" s="3">
-        <v>15374400</v>
+        <v>15343600</v>
       </c>
       <c r="G48" s="3">
-        <v>15902200</v>
+        <v>15870300</v>
       </c>
       <c r="H48" s="3">
-        <v>14477800</v>
+        <v>14448800</v>
       </c>
       <c r="I48" s="3">
-        <v>14332600</v>
+        <v>14303900</v>
       </c>
       <c r="J48" s="3">
-        <v>27682400</v>
+        <v>27626900</v>
       </c>
       <c r="K48" s="3">
         <v>13618400</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7124200</v>
+        <v>7109900</v>
       </c>
       <c r="E49" s="3">
-        <v>5286900</v>
+        <v>5276300</v>
       </c>
       <c r="F49" s="3">
-        <v>4623000</v>
+        <v>4613800</v>
       </c>
       <c r="G49" s="3">
-        <v>4805200</v>
+        <v>4795600</v>
       </c>
       <c r="H49" s="3">
-        <v>4674200</v>
+        <v>4664900</v>
       </c>
       <c r="I49" s="3">
-        <v>5951400</v>
+        <v>5939500</v>
       </c>
       <c r="J49" s="3">
-        <v>11588400</v>
+        <v>11565100</v>
       </c>
       <c r="K49" s="3">
         <v>6106800</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1159200</v>
+        <v>1156800</v>
       </c>
       <c r="E52" s="3">
-        <v>1369200</v>
+        <v>1366500</v>
       </c>
       <c r="F52" s="3">
-        <v>1532600</v>
+        <v>1529500</v>
       </c>
       <c r="G52" s="3">
-        <v>2322200</v>
+        <v>2317600</v>
       </c>
       <c r="H52" s="3">
-        <v>2360500</v>
+        <v>2355700</v>
       </c>
       <c r="I52" s="3">
-        <v>2204200</v>
+        <v>2199800</v>
       </c>
       <c r="J52" s="3">
-        <v>1837900</v>
+        <v>1834200</v>
       </c>
       <c r="K52" s="3">
         <v>1507400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29192300</v>
+        <v>29133800</v>
       </c>
       <c r="E54" s="3">
-        <v>26987400</v>
+        <v>26933300</v>
       </c>
       <c r="F54" s="3">
-        <v>27569000</v>
+        <v>27513700</v>
       </c>
       <c r="G54" s="3">
-        <v>28786500</v>
+        <v>28728700</v>
       </c>
       <c r="H54" s="3">
-        <v>27610400</v>
+        <v>27555100</v>
       </c>
       <c r="I54" s="3">
-        <v>27697300</v>
+        <v>27641800</v>
       </c>
       <c r="J54" s="3">
-        <v>27232500</v>
+        <v>27177900</v>
       </c>
       <c r="K54" s="3">
         <v>28642300</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1031400</v>
+        <v>1029400</v>
       </c>
       <c r="E57" s="3">
-        <v>853800</v>
+        <v>852100</v>
       </c>
       <c r="F57" s="3">
-        <v>780600</v>
+        <v>779000</v>
       </c>
       <c r="G57" s="3">
-        <v>640500</v>
+        <v>639200</v>
       </c>
       <c r="H57" s="3">
-        <v>550400</v>
+        <v>549300</v>
       </c>
       <c r="I57" s="3">
-        <v>1029500</v>
+        <v>1027400</v>
       </c>
       <c r="J57" s="3">
-        <v>3325100</v>
+        <v>3318500</v>
       </c>
       <c r="K57" s="3">
         <v>969400</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2016200</v>
+        <v>2012200</v>
       </c>
       <c r="E58" s="3">
-        <v>2061600</v>
+        <v>2057500</v>
       </c>
       <c r="F58" s="3">
-        <v>2680100</v>
+        <v>2674700</v>
       </c>
       <c r="G58" s="3">
-        <v>2187400</v>
+        <v>2183000</v>
       </c>
       <c r="H58" s="3">
-        <v>1440500</v>
+        <v>1437600</v>
       </c>
       <c r="I58" s="3">
-        <v>1060000</v>
+        <v>1057800</v>
       </c>
       <c r="J58" s="3">
-        <v>3210400</v>
+        <v>3203900</v>
       </c>
       <c r="K58" s="3">
         <v>1756800</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3495000</v>
+        <v>3488000</v>
       </c>
       <c r="E59" s="3">
-        <v>3371800</v>
+        <v>3365000</v>
       </c>
       <c r="F59" s="3">
-        <v>3297300</v>
+        <v>3290600</v>
       </c>
       <c r="G59" s="3">
-        <v>3716100</v>
+        <v>3708600</v>
       </c>
       <c r="H59" s="3">
-        <v>4202300</v>
+        <v>4193900</v>
       </c>
       <c r="I59" s="3">
-        <v>4401300</v>
+        <v>4392500</v>
       </c>
       <c r="J59" s="3">
-        <v>4473900</v>
+        <v>4464900</v>
       </c>
       <c r="K59" s="3">
         <v>3353500</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6542600</v>
+        <v>6529500</v>
       </c>
       <c r="E60" s="3">
-        <v>6287200</v>
+        <v>6274600</v>
       </c>
       <c r="F60" s="3">
-        <v>6757900</v>
+        <v>6744300</v>
       </c>
       <c r="G60" s="3">
-        <v>6543900</v>
+        <v>6530800</v>
       </c>
       <c r="H60" s="3">
-        <v>6193200</v>
+        <v>6180800</v>
       </c>
       <c r="I60" s="3">
-        <v>5695300</v>
+        <v>5683900</v>
       </c>
       <c r="J60" s="3">
-        <v>5887200</v>
+        <v>5875400</v>
       </c>
       <c r="K60" s="3">
         <v>6079700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8269700</v>
+        <v>8253100</v>
       </c>
       <c r="E61" s="3">
-        <v>7189000</v>
+        <v>7174600</v>
       </c>
       <c r="F61" s="3">
-        <v>8626900</v>
+        <v>8609600</v>
       </c>
       <c r="G61" s="3">
-        <v>10212700</v>
+        <v>10192200</v>
       </c>
       <c r="H61" s="3">
-        <v>9744600</v>
+        <v>9725100</v>
       </c>
       <c r="I61" s="3">
-        <v>9929400</v>
+        <v>9909500</v>
       </c>
       <c r="J61" s="3">
-        <v>9600000</v>
+        <v>9580800</v>
       </c>
       <c r="K61" s="3">
         <v>9691900</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2829800</v>
+        <v>2824200</v>
       </c>
       <c r="E62" s="3">
-        <v>2505700</v>
+        <v>2500700</v>
       </c>
       <c r="F62" s="3">
-        <v>2281400</v>
+        <v>2276800</v>
       </c>
       <c r="G62" s="3">
-        <v>2210100</v>
+        <v>2205600</v>
       </c>
       <c r="H62" s="3">
-        <v>2252800</v>
+        <v>2248300</v>
       </c>
       <c r="I62" s="3">
-        <v>3445700</v>
+        <v>3438800</v>
       </c>
       <c r="J62" s="3">
-        <v>3323800</v>
+        <v>3317200</v>
       </c>
       <c r="K62" s="3">
         <v>2345100</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19203900</v>
+        <v>19165400</v>
       </c>
       <c r="E66" s="3">
-        <v>16946600</v>
+        <v>16912600</v>
       </c>
       <c r="F66" s="3">
-        <v>18111600</v>
+        <v>18075200</v>
       </c>
       <c r="G66" s="3">
-        <v>19403600</v>
+        <v>19364700</v>
       </c>
       <c r="H66" s="3">
-        <v>18178300</v>
+        <v>18141900</v>
       </c>
       <c r="I66" s="3">
-        <v>18211400</v>
+        <v>18174900</v>
       </c>
       <c r="J66" s="3">
-        <v>18070700</v>
+        <v>18034500</v>
       </c>
       <c r="K66" s="3">
         <v>18140500</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7904700</v>
+        <v>7888900</v>
       </c>
       <c r="E72" s="3">
-        <v>7866500</v>
+        <v>7850700</v>
       </c>
       <c r="F72" s="3">
-        <v>6487500</v>
+        <v>6474500</v>
       </c>
       <c r="G72" s="3">
-        <v>6489500</v>
+        <v>6476500</v>
       </c>
       <c r="H72" s="3">
-        <v>6582200</v>
+        <v>6569000</v>
       </c>
       <c r="I72" s="3">
-        <v>6695600</v>
+        <v>6682200</v>
       </c>
       <c r="J72" s="3">
-        <v>6293000</v>
+        <v>6280400</v>
       </c>
       <c r="K72" s="3">
         <v>7040500</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9988400</v>
+        <v>9968300</v>
       </c>
       <c r="E76" s="3">
-        <v>10040900</v>
+        <v>10020700</v>
       </c>
       <c r="F76" s="3">
-        <v>9457400</v>
+        <v>9438400</v>
       </c>
       <c r="G76" s="3">
-        <v>9382800</v>
+        <v>9364000</v>
       </c>
       <c r="H76" s="3">
-        <v>9432100</v>
+        <v>9413200</v>
       </c>
       <c r="I76" s="3">
-        <v>9485900</v>
+        <v>9466900</v>
       </c>
       <c r="J76" s="3">
-        <v>9161800</v>
+        <v>9143400</v>
       </c>
       <c r="K76" s="3">
         <v>10501800</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1249900</v>
+        <v>1247400</v>
       </c>
       <c r="E81" s="3">
-        <v>1094300</v>
+        <v>1092100</v>
       </c>
       <c r="F81" s="3">
-        <v>1203900</v>
+        <v>1201500</v>
       </c>
       <c r="G81" s="3">
-        <v>1179300</v>
+        <v>1176900</v>
       </c>
       <c r="H81" s="3">
-        <v>1396400</v>
+        <v>1393600</v>
       </c>
       <c r="I81" s="3">
-        <v>2328000</v>
+        <v>2323400</v>
       </c>
       <c r="J81" s="3">
-        <v>2522500</v>
+        <v>2517500</v>
       </c>
       <c r="K81" s="3">
         <v>3824600</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2897900</v>
+        <v>2892100</v>
       </c>
       <c r="E83" s="3">
-        <v>2825300</v>
+        <v>2819600</v>
       </c>
       <c r="F83" s="3">
-        <v>3012000</v>
+        <v>3006000</v>
       </c>
       <c r="G83" s="3">
-        <v>3460600</v>
+        <v>3453700</v>
       </c>
       <c r="H83" s="3">
-        <v>2776000</v>
+        <v>2770500</v>
       </c>
       <c r="I83" s="3">
-        <v>2897900</v>
+        <v>2892100</v>
       </c>
       <c r="J83" s="3">
-        <v>2879100</v>
+        <v>2873300</v>
       </c>
       <c r="K83" s="3">
         <v>2756000</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4409700</v>
+        <v>4400900</v>
       </c>
       <c r="E89" s="3">
-        <v>4699500</v>
+        <v>4690100</v>
       </c>
       <c r="F89" s="3">
-        <v>4687900</v>
+        <v>4678500</v>
       </c>
       <c r="G89" s="3">
-        <v>4544600</v>
+        <v>4535500</v>
       </c>
       <c r="H89" s="3">
-        <v>4332600</v>
+        <v>4323900</v>
       </c>
       <c r="I89" s="3">
-        <v>5579300</v>
+        <v>5568100</v>
       </c>
       <c r="J89" s="3">
-        <v>5040500</v>
+        <v>5030400</v>
       </c>
       <c r="K89" s="3">
         <v>5381600</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1603900</v>
+        <v>-1600700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1410700</v>
+        <v>-1407900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1347800</v>
+        <v>-1345100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1517700</v>
+        <v>-1514600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2097300</v>
+        <v>-2093000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2315100</v>
+        <v>-2310400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2414900</v>
+        <v>-2410100</v>
       </c>
       <c r="K91" s="3">
         <v>-2018800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3858000</v>
+        <v>-3850300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2201000</v>
+        <v>-2196600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1519600</v>
+        <v>-1516600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1929300</v>
+        <v>-1925500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2343600</v>
+        <v>-2338900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2535500</v>
+        <v>-2530400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2774100</v>
+        <v>-2768500</v>
       </c>
       <c r="K94" s="3">
         <v>-1460400</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1273300</v>
+        <v>-1270700</v>
       </c>
       <c r="E96" s="3">
-        <v>-1224000</v>
+        <v>-1221500</v>
       </c>
       <c r="F96" s="3">
-        <v>-1233100</v>
+        <v>-1230600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1233700</v>
+        <v>-1231200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1464500</v>
+        <v>-1461600</v>
       </c>
       <c r="I96" s="3">
-        <v>-2042100</v>
+        <v>-2038100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2422000</v>
+        <v>-2417200</v>
       </c>
       <c r="K96" s="3">
         <v>-2505900</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-628200</v>
+        <v>-626900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2574400</v>
+        <v>-2569200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2746200</v>
+        <v>-2740700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2682700</v>
+        <v>-2677300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2002000</v>
+        <v>-1997900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3251200</v>
+        <v>-3244700</v>
       </c>
       <c r="J100" s="3">
-        <v>-3957200</v>
+        <v>-3949300</v>
       </c>
       <c r="K100" s="3">
         <v>-2499200</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70000</v>
+        <v>-69900</v>
       </c>
       <c r="E102" s="3">
-        <v>-55100</v>
+        <v>-55000</v>
       </c>
       <c r="F102" s="3">
-        <v>405800</v>
+        <v>405000</v>
       </c>
       <c r="G102" s="3">
-        <v>-68100</v>
+        <v>-67900</v>
       </c>
       <c r="H102" s="3">
         <v>-10400</v>
       </c>
       <c r="I102" s="3">
-        <v>-204900</v>
+        <v>-204500</v>
       </c>
       <c r="J102" s="3">
-        <v>-1694700</v>
+        <v>-1691300</v>
       </c>
       <c r="K102" s="3">
         <v>1425300</v>
